--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_30.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2020644.557242638</v>
+        <v>2024854.19735978</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8225312.774291688</v>
+        <v>8225312.774291684</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>196.9826481283071</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
+        <v>178.1573130319831</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -744,13 +744,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>35.85944609968224</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>16.20679032152191</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -911,55 +911,55 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>180.1159031720508</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X5" t="n">
-        <v>190.1066023865956</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.77809019286808</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>9.980749908508919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>195.4186406871858</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,58 +1145,58 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>222.1008216780093</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1215,19 +1215,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>71.44610599702087</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>126.9572906173535</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>75.56150892410814</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>182.0639134884867</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>20.68618374662616</v>
       </c>
       <c r="W11" t="n">
-        <v>86.93851887441505</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1452,13 +1452,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>52.74030195953569</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>136.7105905574356</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>60.86086471689316</v>
       </c>
       <c r="S12" t="n">
-        <v>159.9268370009556</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>197.6135903145267</v>
@@ -1506,10 +1506,10 @@
         <v>225.8997421727001</v>
       </c>
       <c r="V12" t="n">
-        <v>145.6556220277953</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>57.95740475725621</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84403469030696</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>41.72948512873495</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.6783760618945</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>201.5828862730827</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,16 +1607,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>190.5508278413204</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>314.202608089903</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>414.119801427466</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>75.56150892410815</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1661,10 +1661,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.251018020823</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>137.1544599532672</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>18.70047903293283</v>
+        <v>60.86086471689316</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>159.9268370009556</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.166681178373</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>6.040133851473846</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2900862071327</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>190.5508278413204</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>273.3593659951767</v>
       </c>
       <c r="G17" t="n">
-        <v>414.119801427466</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>327.3600579079264</v>
@@ -1889,16 +1889,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>75.56150892410815</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>182.0639134884867</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.91754684036</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.251018020823</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>160.9101946414674</v>
+        <v>5.808273138298377</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1932,13 +1932,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.7105905574356</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>106.1227057017747</v>
       </c>
       <c r="I18" t="n">
         <v>67.605080854337</v>
@@ -1980,7 +1980,7 @@
         <v>225.8997421727001</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>9.50297183104543</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.13389991425795</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6783760618945</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>69.67817119610082</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.119801427466</v>
       </c>
       <c r="H20" t="n">
-        <v>327.3600579079264</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>164.8707460505445</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,22 +2126,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>75.56150892410815</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>182.0639134884867</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.91754684036</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.251018020823</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>135.1770440857662</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.145950493077655</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2169,7 +2169,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>136.7105905574356</v>
@@ -2178,7 +2178,7 @@
         <v>106.1227057017747</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.605080854337</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>60.86086471689316</v>
       </c>
       <c r="S21" t="n">
-        <v>159.9268370009556</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>197.6135903145267</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8997421727001</v>
+        <v>131.1949785675972</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>153.4345885896158</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>214.769261817049</v>
       </c>
       <c r="T22" t="n">
         <v>225.6783760618945</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>103.502281421037</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>16.221481630258</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>256.3096871317134</v>
+        <v>327.3600579079264</v>
       </c>
       <c r="I23" t="n">
-        <v>164.8707460505445</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>217.91754684036</v>
       </c>
       <c r="U23" t="n">
-        <v>251.251018020823</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>310.6558843676298</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2406,16 +2406,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>136.7105905574356</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>106.1227057017747</v>
       </c>
       <c r="I24" t="n">
-        <v>67.605080854337</v>
+        <v>67.23803865418714</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>60.86086471689316</v>
       </c>
       <c r="S24" t="n">
-        <v>72.27880681356459</v>
+        <v>159.9268370009556</v>
       </c>
       <c r="T24" t="n">
         <v>197.6135903145267</v>
@@ -2454,7 +2454,7 @@
         <v>225.8997421727001</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2521,7 +2521,7 @@
         <v>41.72948512873495</v>
       </c>
       <c r="R25" t="n">
-        <v>153.4345885896158</v>
+        <v>1.161086147063666</v>
       </c>
       <c r="S25" t="n">
         <v>214.769261817049</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2900862071327</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>134.0165837645807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>381.1187459861399</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>414.119801427466</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.3600579079264</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>164.8707460505445</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>182.0639134884867</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.91754684036</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>159.587030618528</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.7105905574356</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>106.1227057017747</v>
@@ -2691,16 +2691,16 @@
         <v>225.8997421727001</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>221.505347868338</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>38.78246992728709</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>149.3486773009946</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2755,13 +2755,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>41.72948512873495</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>153.4345885896158</v>
       </c>
       <c r="S28" t="n">
-        <v>214.769261817049</v>
+        <v>32.92355146478952</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2792,25 +2792,25 @@
         <v>362.118472103924</v>
       </c>
       <c r="C29" t="n">
-        <v>344.657522211451</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>334.0676720611264</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>361.3150005127052</v>
+        <v>136.3679624110974</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>306.7230760549773</v>
+        <v>393.5044318679094</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>144.255376490988</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.94613936455164</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>197.3021772808035</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>230.6356484612665</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>328.6255991578565</v>
       </c>
       <c r="X29" t="n">
         <v>349.1157311189125</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>365.622569096497</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2886,7 @@
         <v>116.0952209978791</v>
       </c>
       <c r="H30" t="n">
-        <v>85.50733614221816</v>
+        <v>85.50733614221818</v>
       </c>
       <c r="I30" t="n">
         <v>46.98971129478048</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>40.24549515733671</v>
+        <v>40.24549515733717</v>
       </c>
       <c r="S30" t="n">
         <v>139.3114674413991</v>
@@ -2925,7 +2925,7 @@
         <v>176.9982207549702</v>
       </c>
       <c r="U30" t="n">
-        <v>205.2843726131433</v>
+        <v>205.2843726131431</v>
       </c>
       <c r="V30" t="n">
         <v>212.1852175898688</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>128.0001034586558</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,16 +2962,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>146.8449853940031</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>124.4279439022154</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>35.22866513075044</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>194.1538922574925</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>237.8288203511273</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>265.9076287770345</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>197.9692837925383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,22 +3026,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>362.118472103924</v>
       </c>
       <c r="C32" t="n">
         <v>344.657522211451</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>78.96592443250059</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>361.3150005127052</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>393.5044318679094</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>54.94613936455163</v>
       </c>
       <c r="S32" t="n">
-        <v>161.4485439289301</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>197.3021772808035</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>230.6356484612665</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>307.1368889105784</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>328.6255991578565</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>349.1157311189125</v>
       </c>
       <c r="Y32" t="n">
-        <v>336.3775402741014</v>
+        <v>365.622569096497</v>
       </c>
     </row>
     <row r="33">
@@ -3159,10 +3159,10 @@
         <v>139.3114674413991</v>
       </c>
       <c r="T33" t="n">
-        <v>176.9982207549702</v>
+        <v>176.99822075497</v>
       </c>
       <c r="U33" t="n">
-        <v>205.2843726131435</v>
+        <v>205.2843726131436</v>
       </c>
       <c r="V33" t="n">
         <v>212.1852175898688</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>128.0001034586558</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>77.11903703872817</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3229,10 +3229,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>21.11411556917842</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>132.8192190300593</v>
       </c>
       <c r="S34" t="n">
         <v>194.1538922574925</v>
@@ -3241,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>265.6747166475762</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>51.41871802760366</v>
       </c>
       <c r="W34" t="n">
-        <v>265.9076287770345</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>362.118472103924</v>
       </c>
       <c r="C35" t="n">
         <v>344.657522211451</v>
       </c>
       <c r="D35" t="n">
-        <v>334.0676720611264</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>386.2606761821549</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>393.5044318679094</v>
       </c>
       <c r="H35" t="n">
-        <v>306.7446883483698</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>144.255376490988</v>
+        <v>125.1071232394045</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>161.4485439289301</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>197.3021772808035</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>307.1368889105784</v>
       </c>
       <c r="W35" t="n">
-        <v>68.15233533833252</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>349.1157311189125</v>
@@ -3399,7 +3399,7 @@
         <v>176.9982207549702</v>
       </c>
       <c r="U36" t="n">
-        <v>205.2843726131436</v>
+        <v>135.4294725666054</v>
       </c>
       <c r="V36" t="n">
         <v>212.1852175898688</v>
@@ -3408,7 +3408,7 @@
         <v>231.0796136013631</v>
       </c>
       <c r="X36" t="n">
-        <v>115.3027155973829</v>
+        <v>185.157615643921</v>
       </c>
       <c r="Y36" t="n">
         <v>185.0673262177478</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>146.8449853940031</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>118.8777823549182</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,13 +3481,13 @@
         <v>265.6747166475762</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>133.7831771354111</v>
       </c>
       <c r="W37" t="n">
-        <v>265.9076287770345</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.598316107298</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3509,10 +3509,10 @@
         <v>334.0676720611264</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>361.3150005127052</v>
       </c>
       <c r="F38" t="n">
-        <v>386.2606761821549</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.94613936455163</v>
       </c>
       <c r="S38" t="n">
         <v>161.4485439289301</v>
@@ -3557,10 +3557,10 @@
         <v>197.3021772808035</v>
       </c>
       <c r="U38" t="n">
-        <v>230.6356484612665</v>
+        <v>74.94471715551879</v>
       </c>
       <c r="V38" t="n">
-        <v>239.9321014858516</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>328.6255991578565</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>365.622569096497</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>40.24549515733663</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>139.3114674413991</v>
@@ -3636,10 +3636,10 @@
         <v>176.9982207549702</v>
       </c>
       <c r="U39" t="n">
-        <v>205.2843726131436</v>
+        <v>175.6749677239422</v>
       </c>
       <c r="V39" t="n">
-        <v>142.3303175433306</v>
+        <v>212.1852175898688</v>
       </c>
       <c r="W39" t="n">
         <v>231.0796136013631</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.056133995043783</v>
       </c>
       <c r="C40" t="n">
-        <v>146.6314515390713</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>47.78020751578052</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>194.1538922574925</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>205.0630065023379</v>
       </c>
       <c r="U40" t="n">
-        <v>265.6747166475762</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>265.9076287770345</v>
       </c>
       <c r="X40" t="n">
-        <v>205.0942858294806</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,10 +3740,10 @@
         <v>362.118472103924</v>
       </c>
       <c r="C41" t="n">
-        <v>166.0808025612236</v>
+        <v>344.657522211451</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>334.0676720611264</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>393.5044318679094</v>
       </c>
       <c r="H41" t="n">
         <v>306.7446883483698</v>
@@ -3785,13 +3785,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.94613936455163</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>161.4485439289301</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>30.71267122962438</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>307.1368889105784</v>
       </c>
       <c r="W41" t="n">
-        <v>328.6255991578565</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>349.1157311189125</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>365.622569096497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3876,10 +3876,10 @@
         <v>205.2843726131436</v>
       </c>
       <c r="V42" t="n">
-        <v>142.3303175433306</v>
+        <v>212.1852175898688</v>
       </c>
       <c r="W42" t="n">
-        <v>231.0796136013631</v>
+        <v>161.224713554825</v>
       </c>
       <c r="X42" t="n">
         <v>185.157615643921</v>
@@ -3898,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>146.6314515390713</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2381040118112913</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>136.8940696025075</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>118.8777823549182</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>21.11411556917842</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>265.6747166475762</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>231.5222737642715</v>
+        <v>211.4395257819447</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>197.9692837925383</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,13 +3989,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.119801427466</v>
       </c>
       <c r="H44" t="n">
-        <v>327.3600579079264</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>164.8707460505445</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,10 +4022,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>75.56150892410814</v>
       </c>
       <c r="S44" t="n">
-        <v>182.0639134884867</v>
+        <v>49.30639266202475</v>
       </c>
       <c r="T44" t="n">
         <v>217.91754684036</v>
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>267.9614255625112</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4065,13 +4065,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>136.7105905574356</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>106.1227057017747</v>
       </c>
       <c r="I45" t="n">
         <v>67.605080854337</v>
@@ -4104,13 +4104,13 @@
         <v>60.86086471689315</v>
       </c>
       <c r="S45" t="n">
-        <v>63.96232001781473</v>
+        <v>159.9268370009556</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>197.6135903145267</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8997421727001</v>
+        <v>137.801325216509</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4603549535597</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84403469030696</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>34.12253131952307</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.6783760618945</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>99.68688988599139</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233.7108255783361</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C2" t="n">
-        <v>233.7108255783361</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D2" t="n">
-        <v>233.7108255783361</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E2" t="n">
-        <v>233.7108255783361</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4361,19 +4361,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="W2" t="n">
-        <v>477.1596022224361</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="X2" t="n">
-        <v>477.1596022224361</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="Y2" t="n">
-        <v>477.1596022224361</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>416.1069178844125</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="C3" t="n">
-        <v>416.1069178844125</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="D3" t="n">
-        <v>416.1069178844125</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="E3" t="n">
-        <v>256.869462878957</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4419,10 +4419,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>927.8354927836845</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>927.8354927836845</v>
       </c>
       <c r="T3" t="n">
-        <v>660.701031422288</v>
+        <v>927.8354927836845</v>
       </c>
       <c r="U3" t="n">
-        <v>432.4774131586771</v>
+        <v>699.6118745200736</v>
       </c>
       <c r="V3" t="n">
-        <v>432.4774131586771</v>
+        <v>699.6118745200736</v>
       </c>
       <c r="W3" t="n">
-        <v>416.1069178844125</v>
+        <v>456.1630978759736</v>
       </c>
       <c r="X3" t="n">
-        <v>416.1069178844125</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="Y3" t="n">
-        <v>416.1069178844125</v>
+        <v>248.3115976704407</v>
       </c>
     </row>
     <row r="4">
@@ -4471,13 +4471,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
         <v>19.28114311021272</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>285.1327311248648</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C5" t="n">
-        <v>285.1327311248648</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D5" t="n">
-        <v>285.1327311248648</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E5" t="n">
-        <v>285.1327311248648</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F5" t="n">
-        <v>278.1872303756613</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>772.0302844130649</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>772.0302844130649</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>528.5815077689649</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="W5" t="n">
-        <v>477.1596022224361</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="X5" t="n">
-        <v>285.1327311248648</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="Y5" t="n">
-        <v>285.1327311248648</v>
+        <v>41.68395448076474</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>543.9374950997189</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>369.484465818592</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>369.484465818592</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>369.484465818592</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4653,10 +4653,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>867.3116098612745</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>693.8942653119434</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>491.7076706707094</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>263.4840524070985</v>
+        <v>751.7889953052518</v>
       </c>
       <c r="V6" t="n">
-        <v>263.4840524070985</v>
+        <v>751.7889953052518</v>
       </c>
       <c r="W6" t="n">
-        <v>20.03527576299844</v>
+        <v>751.7889953052518</v>
       </c>
       <c r="X6" t="n">
-        <v>20.03527576299844</v>
+        <v>543.9374950997189</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>543.9374950997189</v>
       </c>
     </row>
     <row r="7">
@@ -4711,13 +4711,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
         <v>19.28114311021272</v>
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C8" t="n">
-        <v>513.1241971476163</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D8" t="n">
-        <v>269.6754205035162</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E8" t="n">
-        <v>269.6754205035162</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.516763498309</v>
+        <v>41.68395448076474</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>648.4405950311615</v>
+        <v>592.3686913742599</v>
       </c>
       <c r="C9" t="n">
-        <v>473.9875657500345</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="D9" t="n">
-        <v>325.0531560887832</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E9" t="n">
-        <v>165.8157010833278</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4884,22 +4884,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4911,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>891.8893716752616</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>891.8893716752616</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>891.8893716752616</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>648.4405950311615</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X9" t="n">
-        <v>648.4405950311615</v>
+        <v>592.3686913742599</v>
       </c>
       <c r="Y9" t="n">
-        <v>648.4405950311615</v>
+        <v>592.3686913742599</v>
       </c>
     </row>
     <row r="10">
@@ -4993,13 +4993,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
         <v>19.28114311021272</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1758.46392350974</v>
+        <v>1730.941369518247</v>
       </c>
       <c r="C11" t="n">
-        <v>1758.46392350974</v>
+        <v>1730.941369518247</v>
       </c>
       <c r="D11" t="n">
-        <v>1758.46392350974</v>
+        <v>1372.675670911496</v>
       </c>
       <c r="E11" t="n">
         <v>1372.675670911496</v>
       </c>
       <c r="F11" t="n">
-        <v>961.6897661218886</v>
+        <v>961.6897661218889</v>
       </c>
       <c r="G11" t="n">
-        <v>543.3869363971755</v>
+        <v>543.3869363971756</v>
       </c>
       <c r="H11" t="n">
         <v>212.720211237654</v>
@@ -5063,28 +5063,28 @@
         <v>2309.205205794593</v>
       </c>
       <c r="R11" t="n">
-        <v>2232.880449305595</v>
+        <v>2309.205205794593</v>
       </c>
       <c r="S11" t="n">
-        <v>2232.880449305595</v>
+        <v>2125.302262876929</v>
       </c>
       <c r="T11" t="n">
-        <v>2232.880449305595</v>
+        <v>2125.302262876929</v>
       </c>
       <c r="U11" t="n">
-        <v>2232.880449305595</v>
+        <v>2125.302262876929</v>
       </c>
       <c r="V11" t="n">
-        <v>2232.880449305595</v>
+        <v>2104.407127779327</v>
       </c>
       <c r="W11" t="n">
-        <v>2145.063763573862</v>
+        <v>2104.407127779327</v>
       </c>
       <c r="X11" t="n">
-        <v>2145.063763573862</v>
+        <v>1730.941369518247</v>
       </c>
       <c r="Y11" t="n">
-        <v>2145.063763573862</v>
+        <v>1730.941369518247</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.9176743333531</v>
+        <v>746.7217389813461</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4646450522262</v>
+        <v>572.2687097002191</v>
       </c>
       <c r="D12" t="n">
-        <v>665.5302353909749</v>
+        <v>518.9956774178598</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2927803855193</v>
+        <v>359.7582224124043</v>
       </c>
       <c r="F12" t="n">
         <v>359.7582224124043</v>
@@ -5124,46 +5124,46 @@
         <v>272.7233933683355</v>
       </c>
       <c r="L12" t="n">
-        <v>638.737820739767</v>
+        <v>638.7378207397669</v>
       </c>
       <c r="M12" t="n">
-        <v>1117.838615337302</v>
+        <v>1117.838615337301</v>
       </c>
       <c r="N12" t="n">
-        <v>1459.693098393674</v>
+        <v>1609.072257675122</v>
       </c>
       <c r="O12" t="n">
-        <v>1857.529959353259</v>
+        <v>2006.909118634707</v>
       </c>
       <c r="P12" t="n">
-        <v>2159.826046513145</v>
+        <v>2309.205205794593</v>
       </c>
       <c r="Q12" t="n">
         <v>2309.205205794593</v>
       </c>
       <c r="R12" t="n">
-        <v>2309.205205794593</v>
+        <v>2247.729584868438</v>
       </c>
       <c r="S12" t="n">
-        <v>2147.662946197668</v>
+        <v>2247.729584868438</v>
       </c>
       <c r="T12" t="n">
-        <v>1948.053259011277</v>
+        <v>2048.119897682047</v>
       </c>
       <c r="U12" t="n">
-        <v>1719.871701261075</v>
+        <v>1819.938339931845</v>
       </c>
       <c r="V12" t="n">
-        <v>1572.744810323908</v>
+        <v>1584.786231700102</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.744810323908</v>
+        <v>1330.548874971901</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.893310118375</v>
+        <v>1122.697374766368</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.133011353421</v>
+        <v>914.9370760014142</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.5922199646868</v>
+        <v>104.7269372040294</v>
       </c>
       <c r="C13" t="n">
-        <v>102.5922199646868</v>
+        <v>104.7269372040294</v>
       </c>
       <c r="D13" t="n">
-        <v>102.5922199646868</v>
+        <v>104.7269372040294</v>
       </c>
       <c r="E13" t="n">
-        <v>102.5922199646868</v>
+        <v>104.7269372040294</v>
       </c>
       <c r="F13" t="n">
-        <v>102.5922199646868</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="G13" t="n">
-        <v>102.5922199646868</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="H13" t="n">
-        <v>102.5922199646868</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="I13" t="n">
-        <v>102.5922199646868</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="J13" t="n">
         <v>46.18410411589185</v>
       </c>
       <c r="K13" t="n">
-        <v>85.1697262597614</v>
+        <v>85.16972625976139</v>
       </c>
       <c r="L13" t="n">
-        <v>190.5843349269522</v>
+        <v>190.5843349269521</v>
       </c>
       <c r="M13" t="n">
-        <v>312.1183826422498</v>
+        <v>312.1183826422497</v>
       </c>
       <c r="N13" t="n">
-        <v>436.1972387666839</v>
+        <v>436.1972387666838</v>
       </c>
       <c r="O13" t="n">
-        <v>534.787849627923</v>
+        <v>534.7878496279228</v>
       </c>
       <c r="P13" t="n">
-        <v>595.6284670451653</v>
+        <v>595.6284670451651</v>
       </c>
       <c r="Q13" t="n">
-        <v>595.6284670451653</v>
+        <v>553.4774719656348</v>
       </c>
       <c r="R13" t="n">
-        <v>595.6284670451653</v>
+        <v>553.4774719656348</v>
       </c>
       <c r="S13" t="n">
-        <v>595.6284670451653</v>
+        <v>553.4774719656348</v>
       </c>
       <c r="T13" t="n">
-        <v>595.6284670451653</v>
+        <v>325.5195163475595</v>
       </c>
       <c r="U13" t="n">
-        <v>595.6284670451653</v>
+        <v>325.5195163475595</v>
       </c>
       <c r="V13" t="n">
-        <v>595.6284670451653</v>
+        <v>325.5195163475595</v>
       </c>
       <c r="W13" t="n">
-        <v>306.2112970082047</v>
+        <v>325.5195163475595</v>
       </c>
       <c r="X13" t="n">
-        <v>102.5922199646868</v>
+        <v>325.5195163475595</v>
       </c>
       <c r="Y13" t="n">
-        <v>102.5922199646868</v>
+        <v>104.7269372040294</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2309.205205794593</v>
+        <v>1648.028654870283</v>
       </c>
       <c r="C14" t="n">
-        <v>2116.729622116491</v>
+        <v>1279.066137929872</v>
       </c>
       <c r="D14" t="n">
-        <v>1758.46392350974</v>
+        <v>1279.066137929872</v>
       </c>
       <c r="E14" t="n">
-        <v>1372.675670911496</v>
+        <v>961.6897661218889</v>
       </c>
       <c r="F14" t="n">
-        <v>961.6897661218886</v>
+        <v>961.6897661218889</v>
       </c>
       <c r="G14" t="n">
-        <v>543.3869363971755</v>
+        <v>543.3869363971756</v>
       </c>
       <c r="H14" t="n">
         <v>212.720211237654</v>
@@ -5282,7 +5282,7 @@
         <v>385.7347004170564</v>
       </c>
       <c r="L14" t="n">
-        <v>750.6199767900017</v>
+        <v>750.6199767900016</v>
       </c>
       <c r="M14" t="n">
         <v>1173.231698093786</v>
@@ -5300,28 +5300,28 @@
         <v>2309.205205794593</v>
       </c>
       <c r="R14" t="n">
-        <v>2309.205205794593</v>
+        <v>2232.880449305595</v>
       </c>
       <c r="S14" t="n">
-        <v>2309.205205794593</v>
+        <v>2232.880449305595</v>
       </c>
       <c r="T14" t="n">
-        <v>2309.205205794593</v>
+        <v>2232.880449305595</v>
       </c>
       <c r="U14" t="n">
-        <v>2309.205205794593</v>
+        <v>1979.091542213854</v>
       </c>
       <c r="V14" t="n">
-        <v>2309.205205794593</v>
+        <v>1648.028654870283</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.205205794593</v>
+        <v>1648.028654870283</v>
       </c>
       <c r="X14" t="n">
-        <v>2309.205205794593</v>
+        <v>1648.028654870283</v>
       </c>
       <c r="Y14" t="n">
-        <v>2309.205205794593</v>
+        <v>1648.028654870283</v>
       </c>
     </row>
     <row r="15">
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.9176743333531</v>
+        <v>953.0045035908799</v>
       </c>
       <c r="C15" t="n">
         <v>814.4646450522262</v>
@@ -5355,52 +5355,52 @@
         <v>46.18410411589185</v>
       </c>
       <c r="J15" t="n">
-        <v>46.18410411589185</v>
+        <v>104.6446861364467</v>
       </c>
       <c r="K15" t="n">
-        <v>272.7233933683355</v>
+        <v>256.4688552970748</v>
       </c>
       <c r="L15" t="n">
-        <v>638.737820739767</v>
+        <v>622.4832826685063</v>
       </c>
       <c r="M15" t="n">
-        <v>952.2049179845932</v>
+        <v>1101.584077266041</v>
       </c>
       <c r="N15" t="n">
-        <v>1459.693098393674</v>
+        <v>1609.072257675122</v>
       </c>
       <c r="O15" t="n">
-        <v>1857.529959353259</v>
+        <v>2006.909118634707</v>
       </c>
       <c r="P15" t="n">
-        <v>2159.826046513145</v>
+        <v>2309.205205794593</v>
       </c>
       <c r="Q15" t="n">
         <v>2309.205205794593</v>
       </c>
       <c r="R15" t="n">
-        <v>2290.315833034054</v>
+        <v>2247.729584868438</v>
       </c>
       <c r="S15" t="n">
-        <v>2290.315833034054</v>
+        <v>2086.187325271513</v>
       </c>
       <c r="T15" t="n">
-        <v>2290.315833034054</v>
+        <v>2086.187325271513</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.134275283852</v>
+        <v>1858.005767521311</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.982167052109</v>
+        <v>1622.853659289568</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.744810323908</v>
+        <v>1368.616302561367</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.893310118375</v>
+        <v>1160.764802355834</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.133011353421</v>
+        <v>953.0045035908799</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>187.0862777668764</v>
+        <v>306.446561785435</v>
       </c>
       <c r="C16" t="n">
-        <v>187.0862777668764</v>
+        <v>306.446561785435</v>
       </c>
       <c r="D16" t="n">
-        <v>187.0862777668764</v>
+        <v>306.446561785435</v>
       </c>
       <c r="E16" t="n">
-        <v>187.0862777668764</v>
+        <v>306.446561785435</v>
       </c>
       <c r="F16" t="n">
         <v>187.0862777668764</v>
@@ -5437,49 +5437,49 @@
         <v>46.18410411589185</v>
       </c>
       <c r="K16" t="n">
-        <v>85.1697262597614</v>
+        <v>85.16972625976139</v>
       </c>
       <c r="L16" t="n">
-        <v>190.5843349269522</v>
+        <v>190.5843349269521</v>
       </c>
       <c r="M16" t="n">
-        <v>312.1183826422498</v>
+        <v>312.1183826422497</v>
       </c>
       <c r="N16" t="n">
-        <v>436.1972387666839</v>
+        <v>436.1972387666838</v>
       </c>
       <c r="O16" t="n">
-        <v>534.787849627923</v>
+        <v>534.7878496279228</v>
       </c>
       <c r="P16" t="n">
-        <v>595.6284670451653</v>
+        <v>595.6284670451651</v>
       </c>
       <c r="Q16" t="n">
-        <v>595.6284670451653</v>
+        <v>595.6284670451651</v>
       </c>
       <c r="R16" t="n">
-        <v>595.6284670451653</v>
+        <v>595.6284670451651</v>
       </c>
       <c r="S16" t="n">
-        <v>589.5273217406462</v>
+        <v>595.6284670451651</v>
       </c>
       <c r="T16" t="n">
-        <v>589.5273217406462</v>
+        <v>595.6284670451651</v>
       </c>
       <c r="U16" t="n">
-        <v>589.5273217406462</v>
+        <v>306.446561785435</v>
       </c>
       <c r="V16" t="n">
-        <v>589.5273217406462</v>
+        <v>306.446561785435</v>
       </c>
       <c r="W16" t="n">
-        <v>589.5273217406462</v>
+        <v>306.446561785435</v>
       </c>
       <c r="X16" t="n">
-        <v>589.5273217406462</v>
+        <v>306.446561785435</v>
       </c>
       <c r="Y16" t="n">
-        <v>368.7347425971161</v>
+        <v>306.446561785435</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2309.205205794593</v>
+        <v>1188.470025049887</v>
       </c>
       <c r="C17" t="n">
-        <v>2116.729622116491</v>
+        <v>819.5075081094753</v>
       </c>
       <c r="D17" t="n">
-        <v>1758.463923509741</v>
+        <v>819.5075081094753</v>
       </c>
       <c r="E17" t="n">
-        <v>1372.675670911496</v>
+        <v>819.5075081094753</v>
       </c>
       <c r="F17" t="n">
-        <v>961.6897661218889</v>
+        <v>543.3869363971756</v>
       </c>
       <c r="G17" t="n">
         <v>543.3869363971756</v>
@@ -5513,13 +5513,13 @@
         <v>46.18410411589185</v>
       </c>
       <c r="J17" t="n">
-        <v>133.7505272079193</v>
+        <v>133.7505272079196</v>
       </c>
       <c r="K17" t="n">
-        <v>385.7347004170564</v>
+        <v>385.7347004170567</v>
       </c>
       <c r="L17" t="n">
-        <v>750.6199767900016</v>
+        <v>750.6199767900019</v>
       </c>
       <c r="M17" t="n">
         <v>1173.231698093786</v>
@@ -5528,7 +5528,7 @@
         <v>1588.049721329405</v>
       </c>
       <c r="O17" t="n">
-        <v>1934.56297998589</v>
+        <v>1934.562979985891</v>
       </c>
       <c r="P17" t="n">
         <v>2192.629646474093</v>
@@ -5537,28 +5537,28 @@
         <v>2309.205205794593</v>
       </c>
       <c r="R17" t="n">
-        <v>2309.205205794593</v>
+        <v>2232.880449305595</v>
       </c>
       <c r="S17" t="n">
-        <v>2309.205205794593</v>
+        <v>2048.977506387931</v>
       </c>
       <c r="T17" t="n">
-        <v>2309.205205794593</v>
+        <v>1828.858772205749</v>
       </c>
       <c r="U17" t="n">
-        <v>2309.205205794593</v>
+        <v>1575.069865114009</v>
       </c>
       <c r="V17" t="n">
-        <v>2309.205205794593</v>
+        <v>1575.069865114009</v>
       </c>
       <c r="W17" t="n">
-        <v>2309.205205794593</v>
+        <v>1575.069865114009</v>
       </c>
       <c r="X17" t="n">
-        <v>2309.205205794593</v>
+        <v>1575.069865114009</v>
       </c>
       <c r="Y17" t="n">
-        <v>2309.205205794593</v>
+        <v>1575.069865114009</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>585.1794793844213</v>
+        <v>820.3315876161639</v>
       </c>
       <c r="C18" t="n">
-        <v>422.6439292415249</v>
+        <v>814.4646450522262</v>
       </c>
       <c r="D18" t="n">
-        <v>273.7095195802736</v>
+        <v>665.5302353909749</v>
       </c>
       <c r="E18" t="n">
-        <v>114.4720645748181</v>
+        <v>506.2927803855193</v>
       </c>
       <c r="F18" t="n">
-        <v>114.4720645748181</v>
+        <v>359.7582224124043</v>
       </c>
       <c r="G18" t="n">
-        <v>114.4720645748181</v>
+        <v>221.666716798833</v>
       </c>
       <c r="H18" t="n">
         <v>114.4720645748181</v>
@@ -5592,22 +5592,22 @@
         <v>46.18410411589185</v>
       </c>
       <c r="J18" t="n">
-        <v>46.18410411589185</v>
+        <v>104.6446861364467</v>
       </c>
       <c r="K18" t="n">
-        <v>272.7233933683355</v>
+        <v>331.1839753888903</v>
       </c>
       <c r="L18" t="n">
-        <v>638.7378207397669</v>
+        <v>697.1984027603218</v>
       </c>
       <c r="M18" t="n">
-        <v>1117.838615337301</v>
+        <v>1176.299197357856</v>
       </c>
       <c r="N18" t="n">
-        <v>1609.072257675122</v>
+        <v>1683.787377766937</v>
       </c>
       <c r="O18" t="n">
-        <v>2006.909118634707</v>
+        <v>2081.624238726522</v>
       </c>
       <c r="P18" t="n">
         <v>2309.205205794593</v>
@@ -5628,16 +5628,16 @@
         <v>1658.39608033492</v>
       </c>
       <c r="V18" t="n">
-        <v>1423.243972103178</v>
+        <v>1658.39608033492</v>
       </c>
       <c r="W18" t="n">
-        <v>1169.006615374976</v>
+        <v>1404.158723606719</v>
       </c>
       <c r="X18" t="n">
-        <v>961.1551151694432</v>
+        <v>1196.307223401186</v>
       </c>
       <c r="Y18" t="n">
-        <v>753.3948164044893</v>
+        <v>988.546924636232</v>
       </c>
     </row>
     <row r="19">
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.18410411589185</v>
+        <v>365.2369264561345</v>
       </c>
       <c r="C19" t="n">
-        <v>46.18410411589185</v>
+        <v>196.3007435282276</v>
       </c>
       <c r="D19" t="n">
         <v>46.18410411589185</v>
@@ -5695,28 +5695,28 @@
         <v>595.6284670451651</v>
       </c>
       <c r="R19" t="n">
-        <v>528.826547939854</v>
+        <v>595.6284670451651</v>
       </c>
       <c r="S19" t="n">
-        <v>528.826547939854</v>
+        <v>595.6284670451651</v>
       </c>
       <c r="T19" t="n">
-        <v>300.8685923217787</v>
+        <v>595.6284670451651</v>
       </c>
       <c r="U19" t="n">
-        <v>300.8685923217787</v>
+        <v>595.6284670451651</v>
       </c>
       <c r="V19" t="n">
-        <v>46.18410411589185</v>
+        <v>595.6284670451651</v>
       </c>
       <c r="W19" t="n">
-        <v>46.18410411589185</v>
+        <v>595.6284670451651</v>
       </c>
       <c r="X19" t="n">
-        <v>46.18410411589185</v>
+        <v>595.6284670451651</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.18410411589185</v>
+        <v>374.8358879016349</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1244.006977770438</v>
+        <v>1786.062896956969</v>
       </c>
       <c r="C20" t="n">
-        <v>1244.006977770438</v>
+        <v>1786.062896956969</v>
       </c>
       <c r="D20" t="n">
-        <v>1173.624986663265</v>
+        <v>1427.797198350219</v>
       </c>
       <c r="E20" t="n">
-        <v>787.8367340650211</v>
+        <v>1042.008945751975</v>
       </c>
       <c r="F20" t="n">
-        <v>376.8508292754135</v>
+        <v>631.0230409623671</v>
       </c>
       <c r="G20" t="n">
-        <v>376.8508292754135</v>
+        <v>212.720211237654</v>
       </c>
       <c r="H20" t="n">
-        <v>46.18410411589185</v>
+        <v>212.720211237654</v>
       </c>
       <c r="I20" t="n">
         <v>46.18410411589185</v>
@@ -5774,28 +5774,28 @@
         <v>2309.205205794593</v>
       </c>
       <c r="R20" t="n">
-        <v>2232.880449305595</v>
+        <v>2309.205205794593</v>
       </c>
       <c r="S20" t="n">
-        <v>2048.977506387931</v>
+        <v>2309.205205794593</v>
       </c>
       <c r="T20" t="n">
-        <v>1828.858772205749</v>
+        <v>2309.205205794593</v>
       </c>
       <c r="U20" t="n">
-        <v>1575.069865114009</v>
+        <v>2309.205205794593</v>
       </c>
       <c r="V20" t="n">
-        <v>1244.006977770438</v>
+        <v>2309.205205794593</v>
       </c>
       <c r="W20" t="n">
-        <v>1244.006977770438</v>
+        <v>2172.662737021091</v>
       </c>
       <c r="X20" t="n">
-        <v>1244.006977770438</v>
+        <v>2172.662737021091</v>
       </c>
       <c r="Y20" t="n">
-        <v>1244.006977770438</v>
+        <v>2172.662737021091</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>746.1766845932998</v>
+        <v>842.3831163602381</v>
       </c>
       <c r="C21" t="n">
-        <v>746.1766845932998</v>
+        <v>667.9300870791111</v>
       </c>
       <c r="D21" t="n">
-        <v>597.2422749320485</v>
+        <v>518.9956774178598</v>
       </c>
       <c r="E21" t="n">
-        <v>438.0048199265931</v>
+        <v>359.7582224124043</v>
       </c>
       <c r="F21" t="n">
-        <v>291.470261953478</v>
+        <v>359.7582224124043</v>
       </c>
       <c r="G21" t="n">
-        <v>153.3787563399067</v>
+        <v>221.666716798833</v>
       </c>
       <c r="H21" t="n">
-        <v>46.18410411589185</v>
+        <v>114.4720645748181</v>
       </c>
       <c r="I21" t="n">
         <v>46.18410411589185</v>
       </c>
       <c r="J21" t="n">
-        <v>104.6446861364467</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="K21" t="n">
         <v>107.0896960156271</v>
@@ -5856,25 +5856,25 @@
         <v>2247.729584868438</v>
       </c>
       <c r="S21" t="n">
-        <v>2086.187325271513</v>
+        <v>2247.729584868438</v>
       </c>
       <c r="T21" t="n">
-        <v>1886.577638085123</v>
+        <v>2048.119897682047</v>
       </c>
       <c r="U21" t="n">
-        <v>1658.39608033492</v>
+        <v>1915.599717310737</v>
       </c>
       <c r="V21" t="n">
-        <v>1423.243972103178</v>
+        <v>1680.447609078994</v>
       </c>
       <c r="W21" t="n">
-        <v>1169.006615374976</v>
+        <v>1426.210252350793</v>
       </c>
       <c r="X21" t="n">
-        <v>961.1551151694432</v>
+        <v>1218.35875214526</v>
       </c>
       <c r="Y21" t="n">
-        <v>753.3948164044893</v>
+        <v>1010.598453380306</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1909.877482277655</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="C22" t="n">
-        <v>1909.877482277655</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="D22" t="n">
-        <v>1759.760842865319</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="E22" t="n">
-        <v>1759.760842865319</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="F22" t="n">
-        <v>1759.760842865319</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="G22" t="n">
-        <v>1759.760842865319</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="H22" t="n">
-        <v>1759.760842865319</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="I22" t="n">
-        <v>1759.760842865319</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="J22" t="n">
-        <v>1759.760842865319</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="K22" t="n">
-        <v>1798.746465009189</v>
+        <v>85.16972625976139</v>
       </c>
       <c r="L22" t="n">
-        <v>1904.161073676379</v>
+        <v>190.5843349269521</v>
       </c>
       <c r="M22" t="n">
-        <v>2025.695121391677</v>
+        <v>312.1183826422497</v>
       </c>
       <c r="N22" t="n">
-        <v>2149.773977516111</v>
+        <v>436.1972387666838</v>
       </c>
       <c r="O22" t="n">
-        <v>2248.36458837735</v>
+        <v>534.7878496279228</v>
       </c>
       <c r="P22" t="n">
-        <v>2309.205205794593</v>
+        <v>595.6284670451651</v>
       </c>
       <c r="Q22" t="n">
-        <v>2309.205205794593</v>
+        <v>595.6284670451651</v>
       </c>
       <c r="R22" t="n">
-        <v>2154.220772875788</v>
+        <v>595.6284670451651</v>
       </c>
       <c r="S22" t="n">
-        <v>2154.220772875788</v>
+        <v>378.6898187451155</v>
       </c>
       <c r="T22" t="n">
-        <v>1926.262817257713</v>
+        <v>150.7318631270403</v>
       </c>
       <c r="U22" t="n">
-        <v>1926.262817257713</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="V22" t="n">
-        <v>1926.262817257713</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="W22" t="n">
-        <v>1926.262817257713</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="X22" t="n">
-        <v>1909.877482277655</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="Y22" t="n">
-        <v>1909.877482277655</v>
+        <v>46.18410411589185</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>857.4071377063158</v>
+        <v>1515.064949612183</v>
       </c>
       <c r="C23" t="n">
-        <v>857.4071377063158</v>
+        <v>1146.102432671772</v>
       </c>
       <c r="D23" t="n">
-        <v>857.4071377063158</v>
+        <v>787.8367340650211</v>
       </c>
       <c r="E23" t="n">
-        <v>471.6188851080715</v>
+        <v>787.8367340650211</v>
       </c>
       <c r="F23" t="n">
-        <v>471.6188851080715</v>
+        <v>376.8508292754135</v>
       </c>
       <c r="G23" t="n">
-        <v>471.6188851080715</v>
+        <v>376.8508292754135</v>
       </c>
       <c r="H23" t="n">
-        <v>212.720211237654</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="I23" t="n">
         <v>46.18410411589185</v>
@@ -6020,19 +6020,19 @@
         <v>1828.858772205749</v>
       </c>
       <c r="U23" t="n">
-        <v>1575.069865114008</v>
+        <v>1828.858772205749</v>
       </c>
       <c r="V23" t="n">
-        <v>1244.006977770438</v>
+        <v>1828.858772205749</v>
       </c>
       <c r="W23" t="n">
-        <v>1244.006977770438</v>
+        <v>1828.858772205749</v>
       </c>
       <c r="X23" t="n">
-        <v>1244.006977770438</v>
+        <v>1515.064949612183</v>
       </c>
       <c r="Y23" t="n">
-        <v>1244.006977770438</v>
+        <v>1515.064949612183</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>735.1884641362233</v>
+        <v>988.546924636232</v>
       </c>
       <c r="C24" t="n">
-        <v>560.7354348550963</v>
+        <v>814.093895355105</v>
       </c>
       <c r="D24" t="n">
-        <v>411.801025193845</v>
+        <v>665.1594856938538</v>
       </c>
       <c r="E24" t="n">
-        <v>252.5635701883895</v>
+        <v>505.9220306883983</v>
       </c>
       <c r="F24" t="n">
-        <v>252.5635701883895</v>
+        <v>359.3874727152833</v>
       </c>
       <c r="G24" t="n">
-        <v>114.4720645748181</v>
+        <v>221.2959671017119</v>
       </c>
       <c r="H24" t="n">
-        <v>114.4720645748181</v>
+        <v>114.101314877697</v>
       </c>
       <c r="I24" t="n">
         <v>46.18410411589185</v>
@@ -6090,28 +6090,28 @@
         <v>2309.205205794593</v>
       </c>
       <c r="R24" t="n">
-        <v>2309.205205794593</v>
+        <v>2247.729584868438</v>
       </c>
       <c r="S24" t="n">
-        <v>2236.196310023315</v>
+        <v>2086.187325271513</v>
       </c>
       <c r="T24" t="n">
-        <v>2036.586622836925</v>
+        <v>1886.577638085123</v>
       </c>
       <c r="U24" t="n">
-        <v>1808.405065086722</v>
+        <v>1658.39608033492</v>
       </c>
       <c r="V24" t="n">
-        <v>1573.25295685498</v>
+        <v>1658.39608033492</v>
       </c>
       <c r="W24" t="n">
-        <v>1319.015600126778</v>
+        <v>1404.158723606719</v>
       </c>
       <c r="X24" t="n">
-        <v>1111.164099921245</v>
+        <v>1196.307223401186</v>
       </c>
       <c r="Y24" t="n">
-        <v>903.4038011562914</v>
+        <v>988.546924636232</v>
       </c>
     </row>
     <row r="25">
@@ -6169,25 +6169,25 @@
         <v>553.4774719656348</v>
       </c>
       <c r="R25" t="n">
-        <v>398.493039046831</v>
+        <v>552.3046576756715</v>
       </c>
       <c r="S25" t="n">
-        <v>181.5543907467815</v>
+        <v>335.3660093756219</v>
       </c>
       <c r="T25" t="n">
-        <v>181.5543907467815</v>
+        <v>335.3660093756219</v>
       </c>
       <c r="U25" t="n">
-        <v>181.5543907467815</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="V25" t="n">
-        <v>181.5543907467815</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="W25" t="n">
-        <v>181.5543907467815</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="X25" t="n">
-        <v>181.5543907467815</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="Y25" t="n">
         <v>46.18410411589185</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1577.503401986011</v>
+        <v>1330.652283062301</v>
       </c>
       <c r="C26" t="n">
-        <v>1208.5408850456</v>
+        <v>961.6897661218889</v>
       </c>
       <c r="D26" t="n">
-        <v>850.2751864388492</v>
+        <v>961.6897661218889</v>
       </c>
       <c r="E26" t="n">
-        <v>464.486933840605</v>
+        <v>961.6897661218889</v>
       </c>
       <c r="F26" t="n">
-        <v>464.486933840605</v>
+        <v>961.6897661218889</v>
       </c>
       <c r="G26" t="n">
-        <v>46.18410411589185</v>
+        <v>543.3869363971756</v>
       </c>
       <c r="H26" t="n">
-        <v>46.18410411589185</v>
+        <v>212.720211237654</v>
       </c>
       <c r="I26" t="n">
         <v>46.18410411589185</v>
@@ -6227,7 +6227,7 @@
         <v>133.7505272079193</v>
       </c>
       <c r="K26" t="n">
-        <v>385.7347004170565</v>
+        <v>385.7347004170564</v>
       </c>
       <c r="L26" t="n">
         <v>750.6199767900016</v>
@@ -6251,25 +6251,25 @@
         <v>2309.205205794593</v>
       </c>
       <c r="S26" t="n">
-        <v>2125.302262876929</v>
+        <v>2309.205205794593</v>
       </c>
       <c r="T26" t="n">
-        <v>2125.302262876929</v>
+        <v>2089.086471612411</v>
       </c>
       <c r="U26" t="n">
-        <v>2125.302262876929</v>
+        <v>2089.086471612411</v>
       </c>
       <c r="V26" t="n">
-        <v>2125.302262876929</v>
+        <v>2089.086471612411</v>
       </c>
       <c r="W26" t="n">
-        <v>2125.302262876929</v>
+        <v>2089.086471612411</v>
       </c>
       <c r="X26" t="n">
-        <v>1964.103242050133</v>
+        <v>1715.620713351331</v>
       </c>
       <c r="Y26" t="n">
-        <v>1964.103242050133</v>
+        <v>1715.620713351331</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.9176743333531</v>
+        <v>850.8261687197818</v>
       </c>
       <c r="C27" t="n">
-        <v>814.4646450522262</v>
+        <v>676.3731394386548</v>
       </c>
       <c r="D27" t="n">
-        <v>665.5302353909749</v>
+        <v>527.4387297774035</v>
       </c>
       <c r="E27" t="n">
-        <v>506.2927803855193</v>
+        <v>368.201274771948</v>
       </c>
       <c r="F27" t="n">
-        <v>359.7582224124043</v>
+        <v>221.666716798833</v>
       </c>
       <c r="G27" t="n">
         <v>221.666716798833</v>
@@ -6303,25 +6303,25 @@
         <v>46.18410411589185</v>
       </c>
       <c r="J27" t="n">
-        <v>46.18410411589185</v>
+        <v>104.6446861364467</v>
       </c>
       <c r="K27" t="n">
-        <v>272.7233933683355</v>
+        <v>331.1839753888903</v>
       </c>
       <c r="L27" t="n">
-        <v>638.7378207397669</v>
+        <v>697.1984027603218</v>
       </c>
       <c r="M27" t="n">
-        <v>952.2049179845932</v>
+        <v>1176.299197357856</v>
       </c>
       <c r="N27" t="n">
-        <v>1459.693098393674</v>
+        <v>1683.787377766937</v>
       </c>
       <c r="O27" t="n">
-        <v>1857.529959353259</v>
+        <v>2081.624238726522</v>
       </c>
       <c r="P27" t="n">
-        <v>2159.826046513145</v>
+        <v>2309.205205794593</v>
       </c>
       <c r="Q27" t="n">
         <v>2309.205205794593</v>
@@ -6339,16 +6339,16 @@
         <v>1658.39608033492</v>
       </c>
       <c r="V27" t="n">
-        <v>1658.39608033492</v>
+        <v>1434.653304710336</v>
       </c>
       <c r="W27" t="n">
-        <v>1404.158723606719</v>
+        <v>1434.653304710336</v>
       </c>
       <c r="X27" t="n">
-        <v>1196.307223401186</v>
+        <v>1226.801804504804</v>
       </c>
       <c r="Y27" t="n">
-        <v>1157.133011353421</v>
+        <v>1019.04150573985</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1910.618092664304</v>
+        <v>365.2369264561345</v>
       </c>
       <c r="C28" t="n">
-        <v>1759.760842865319</v>
+        <v>196.3007435282276</v>
       </c>
       <c r="D28" t="n">
-        <v>1759.760842865319</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="E28" t="n">
-        <v>1759.760842865319</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="F28" t="n">
-        <v>1759.760842865319</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="G28" t="n">
-        <v>1759.760842865319</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="H28" t="n">
-        <v>1759.760842865319</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="I28" t="n">
-        <v>1759.760842865319</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="J28" t="n">
-        <v>1759.760842865319</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="K28" t="n">
-        <v>1798.746465009189</v>
+        <v>85.16972625976139</v>
       </c>
       <c r="L28" t="n">
-        <v>1904.161073676379</v>
+        <v>190.5843349269521</v>
       </c>
       <c r="M28" t="n">
-        <v>2025.695121391677</v>
+        <v>312.1183826422497</v>
       </c>
       <c r="N28" t="n">
-        <v>2149.773977516111</v>
+        <v>436.1972387666838</v>
       </c>
       <c r="O28" t="n">
-        <v>2248.36458837735</v>
+        <v>534.7878496279228</v>
       </c>
       <c r="P28" t="n">
-        <v>2309.205205794593</v>
+        <v>595.6284670451651</v>
       </c>
       <c r="Q28" t="n">
-        <v>2309.205205794593</v>
+        <v>553.4774719656348</v>
       </c>
       <c r="R28" t="n">
-        <v>2309.205205794593</v>
+        <v>398.493039046831</v>
       </c>
       <c r="S28" t="n">
-        <v>2092.266557494543</v>
+        <v>365.2369264561345</v>
       </c>
       <c r="T28" t="n">
-        <v>2092.266557494543</v>
+        <v>365.2369264561345</v>
       </c>
       <c r="U28" t="n">
-        <v>2092.266557494543</v>
+        <v>365.2369264561345</v>
       </c>
       <c r="V28" t="n">
-        <v>2092.266557494543</v>
+        <v>365.2369264561345</v>
       </c>
       <c r="W28" t="n">
-        <v>2092.266557494543</v>
+        <v>365.2369264561345</v>
       </c>
       <c r="X28" t="n">
-        <v>2092.266557494543</v>
+        <v>365.2369264561345</v>
       </c>
       <c r="Y28" t="n">
-        <v>2092.266557494543</v>
+        <v>365.2369264561345</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1407.991054666691</v>
+        <v>728.5612566159184</v>
       </c>
       <c r="C29" t="n">
-        <v>1059.852143341993</v>
+        <v>728.5612566159184</v>
       </c>
       <c r="D29" t="n">
-        <v>722.4100503509565</v>
+        <v>728.5612566159184</v>
       </c>
       <c r="E29" t="n">
-        <v>357.4454033684259</v>
+        <v>590.8158400390523</v>
       </c>
       <c r="F29" t="n">
-        <v>357.4454033684259</v>
+        <v>590.8158400390523</v>
       </c>
       <c r="G29" t="n">
-        <v>47.62411442400437</v>
+        <v>193.3366159300529</v>
       </c>
       <c r="H29" t="n">
-        <v>47.62411442400437</v>
+        <v>193.3366159300529</v>
       </c>
       <c r="I29" t="n">
         <v>47.62411442400437</v>
       </c>
       <c r="J29" t="n">
-        <v>155.5997533799926</v>
+        <v>135.1905375160318</v>
       </c>
       <c r="K29" t="n">
-        <v>407.5839265891297</v>
+        <v>387.1747107251688</v>
       </c>
       <c r="L29" t="n">
-        <v>781.8020604677054</v>
+        <v>772.4692029620751</v>
       </c>
       <c r="M29" t="n">
-        <v>1204.41378177149</v>
+        <v>1195.08092426586</v>
       </c>
       <c r="N29" t="n">
-        <v>1639.641020871069</v>
+        <v>1619.231805007109</v>
       </c>
       <c r="O29" t="n">
         <v>1986.154279527555</v>
@@ -6485,28 +6485,28 @@
         <v>2381.205721200218</v>
       </c>
       <c r="R29" t="n">
-        <v>2325.704570326934</v>
+        <v>2381.205721200218</v>
       </c>
       <c r="S29" t="n">
-        <v>2325.704570326934</v>
+        <v>2381.205721200218</v>
       </c>
       <c r="T29" t="n">
-        <v>2126.409441760466</v>
+        <v>2381.205721200218</v>
       </c>
       <c r="U29" t="n">
-        <v>2126.409441760466</v>
+        <v>2148.240419724191</v>
       </c>
       <c r="V29" t="n">
-        <v>2126.409441760466</v>
+        <v>2148.240419724191</v>
       </c>
       <c r="W29" t="n">
-        <v>2126.409441760466</v>
+        <v>1816.295370069791</v>
       </c>
       <c r="X29" t="n">
-        <v>1773.767289115099</v>
+        <v>1463.653217424425</v>
       </c>
       <c r="Y29" t="n">
-        <v>1773.767289115099</v>
+        <v>1094.337491064327</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6516,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>844.59244533147</v>
+        <v>844.5924453314701</v>
       </c>
       <c r="C30" t="n">
-        <v>690.9630216660566</v>
+        <v>690.9630216660568</v>
       </c>
       <c r="D30" t="n">
-        <v>562.852217620519</v>
+        <v>562.8522176205191</v>
       </c>
       <c r="E30" t="n">
-        <v>424.4383682307772</v>
+        <v>424.4383682307773</v>
       </c>
       <c r="F30" t="n">
-        <v>298.7274158733758</v>
+        <v>298.7274158733759</v>
       </c>
       <c r="G30" t="n">
-        <v>181.4595158755181</v>
+        <v>181.4595158755182</v>
       </c>
       <c r="H30" t="n">
-        <v>95.08846926721696</v>
+        <v>95.08846926721698</v>
       </c>
       <c r="I30" t="n">
         <v>47.62411442400437</v>
       </c>
       <c r="J30" t="n">
-        <v>106.0846964445592</v>
+        <v>47.62411442400437</v>
       </c>
       <c r="K30" t="n">
-        <v>332.6239856970028</v>
+        <v>179.0902114212528</v>
       </c>
       <c r="L30" t="n">
-        <v>698.6384130684343</v>
+        <v>545.1046387926842</v>
       </c>
       <c r="M30" t="n">
-        <v>1177.739207665969</v>
+        <v>1024.205433390219</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.22738807505</v>
+        <v>1531.6936137993</v>
       </c>
       <c r="O30" t="n">
-        <v>2083.064249034635</v>
+        <v>1929.530474758885</v>
       </c>
       <c r="P30" t="n">
         <v>2231.82656191877</v>
@@ -6585,7 +6585,7 @@
         <v>1178.920869885065</v>
       </c>
       <c r="Y30" t="n">
-        <v>991.9841767358243</v>
+        <v>991.9841767358245</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1744.890573320261</v>
+        <v>2112.612156778971</v>
       </c>
       <c r="C31" t="n">
-        <v>1744.890573320261</v>
+        <v>2112.612156778971</v>
       </c>
       <c r="D31" t="n">
-        <v>1744.890573320261</v>
+        <v>1983.319122982349</v>
       </c>
       <c r="E31" t="n">
-        <v>1744.890573320261</v>
+        <v>1983.319122982349</v>
       </c>
       <c r="F31" t="n">
-        <v>1744.890573320261</v>
+        <v>1983.319122982349</v>
       </c>
       <c r="G31" t="n">
-        <v>1744.890573320261</v>
+        <v>1834.990854907599</v>
       </c>
       <c r="H31" t="n">
-        <v>1744.890573320261</v>
+        <v>1709.306063087179</v>
       </c>
       <c r="I31" t="n">
-        <v>1744.890573320261</v>
+        <v>1709.306063087179</v>
       </c>
       <c r="J31" t="n">
         <v>1709.306063087179</v>
@@ -6646,25 +6646,25 @@
         <v>2381.205721200218</v>
       </c>
       <c r="S31" t="n">
-        <v>2185.090678515882</v>
+        <v>2381.205721200218</v>
       </c>
       <c r="T31" t="n">
-        <v>2185.090678515882</v>
+        <v>2381.205721200218</v>
       </c>
       <c r="U31" t="n">
-        <v>1944.859546848077</v>
+        <v>2381.205721200218</v>
       </c>
       <c r="V31" t="n">
-        <v>1944.859546848077</v>
+        <v>2381.205721200218</v>
       </c>
       <c r="W31" t="n">
-        <v>1944.859546848077</v>
+        <v>2112.612156778971</v>
       </c>
       <c r="X31" t="n">
-        <v>1944.859546848077</v>
+        <v>2112.612156778971</v>
       </c>
       <c r="Y31" t="n">
-        <v>1744.890573320261</v>
+        <v>2112.612156778971</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>395.7630257487024</v>
+        <v>1237.970456873061</v>
       </c>
       <c r="C32" t="n">
-        <v>47.62411442400437</v>
+        <v>889.8315455483632</v>
       </c>
       <c r="D32" t="n">
-        <v>47.62411442400437</v>
+        <v>810.0679855155344</v>
       </c>
       <c r="E32" t="n">
-        <v>47.62411442400437</v>
+        <v>445.1033385330038</v>
       </c>
       <c r="F32" t="n">
-        <v>47.62411442400437</v>
+        <v>445.1033385330038</v>
       </c>
       <c r="G32" t="n">
         <v>47.62411442400437</v>
@@ -6698,25 +6698,25 @@
         <v>47.62411442400437</v>
       </c>
       <c r="J32" t="n">
-        <v>135.1905375160318</v>
+        <v>155.5997533799927</v>
       </c>
       <c r="K32" t="n">
-        <v>387.1747107251689</v>
+        <v>416.9167840947601</v>
       </c>
       <c r="L32" t="n">
-        <v>752.0599870981141</v>
+        <v>781.8020604677054</v>
       </c>
       <c r="M32" t="n">
-        <v>1174.671708401899</v>
+        <v>1224.822997635451</v>
       </c>
       <c r="N32" t="n">
-        <v>1609.898947501478</v>
+        <v>1639.64102087107</v>
       </c>
       <c r="O32" t="n">
-        <v>1976.821422021925</v>
+        <v>1986.154279527555</v>
       </c>
       <c r="P32" t="n">
-        <v>2255.297304374088</v>
+        <v>2244.220946015757</v>
       </c>
       <c r="Q32" t="n">
         <v>2381.205721200218</v>
@@ -6725,25 +6725,25 @@
         <v>2325.704570326934</v>
       </c>
       <c r="S32" t="n">
-        <v>2162.625233024984</v>
+        <v>2325.704570326934</v>
       </c>
       <c r="T32" t="n">
-        <v>1963.330104458516</v>
+        <v>2325.704570326934</v>
       </c>
       <c r="U32" t="n">
-        <v>1730.364802982489</v>
+        <v>2325.704570326934</v>
       </c>
       <c r="V32" t="n">
-        <v>1420.125521254632</v>
+        <v>2325.704570326934</v>
       </c>
       <c r="W32" t="n">
-        <v>1088.180471600232</v>
+        <v>2325.704570326934</v>
       </c>
       <c r="X32" t="n">
-        <v>735.5383189548654</v>
+        <v>1973.062417681567</v>
       </c>
       <c r="Y32" t="n">
-        <v>395.7630257487024</v>
+        <v>1603.746691321469</v>
       </c>
     </row>
     <row r="33">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1916.497114094635</v>
+        <v>47.62411442400437</v>
       </c>
       <c r="C34" t="n">
-        <v>1916.497114094635</v>
+        <v>47.62411442400437</v>
       </c>
       <c r="D34" t="n">
-        <v>1787.204080298013</v>
+        <v>47.62411442400437</v>
       </c>
       <c r="E34" t="n">
-        <v>1787.204080298013</v>
+        <v>47.62411442400437</v>
       </c>
       <c r="F34" t="n">
-        <v>1787.204080298013</v>
+        <v>47.62411442400437</v>
       </c>
       <c r="G34" t="n">
-        <v>1787.204080298013</v>
+        <v>47.62411442400437</v>
       </c>
       <c r="H34" t="n">
-        <v>1787.204080298013</v>
+        <v>47.62411442400437</v>
       </c>
       <c r="I34" t="n">
-        <v>1709.306063087177</v>
+        <v>47.62411442400437</v>
       </c>
       <c r="J34" t="n">
-        <v>1709.306063087177</v>
+        <v>47.62411442400437</v>
       </c>
       <c r="K34" t="n">
-        <v>1768.700901095007</v>
+        <v>107.0189524318349</v>
       </c>
       <c r="L34" t="n">
-        <v>1894.524725626161</v>
+        <v>232.842776962988</v>
       </c>
       <c r="M34" t="n">
-        <v>2036.46798920542</v>
+        <v>374.7860405422466</v>
       </c>
       <c r="N34" t="n">
-        <v>2180.956061193815</v>
+        <v>519.2741125306416</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.955887919015</v>
+        <v>638.2739392558416</v>
       </c>
       <c r="P34" t="n">
-        <v>2381.205721200218</v>
+        <v>719.5237725370448</v>
       </c>
       <c r="Q34" t="n">
-        <v>2381.205721200218</v>
+        <v>698.1963830732283</v>
       </c>
       <c r="R34" t="n">
-        <v>2381.205721200218</v>
+        <v>564.0355557701381</v>
       </c>
       <c r="S34" t="n">
-        <v>2185.090678515882</v>
+        <v>367.9205130858022</v>
       </c>
       <c r="T34" t="n">
-        <v>2185.090678515882</v>
+        <v>367.9205130858022</v>
       </c>
       <c r="U34" t="n">
-        <v>2185.090678515882</v>
+        <v>99.56221344178584</v>
       </c>
       <c r="V34" t="n">
-        <v>2185.090678515882</v>
+        <v>47.62411442400437</v>
       </c>
       <c r="W34" t="n">
-        <v>1916.497114094635</v>
+        <v>47.62411442400437</v>
       </c>
       <c r="X34" t="n">
-        <v>1916.497114094635</v>
+        <v>47.62411442400437</v>
       </c>
       <c r="Y34" t="n">
-        <v>1916.497114094635</v>
+        <v>47.62411442400437</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1577.483028655377</v>
+        <v>918.1730711045434</v>
       </c>
       <c r="C35" t="n">
-        <v>1229.344117330679</v>
+        <v>570.0341597798454</v>
       </c>
       <c r="D35" t="n">
-        <v>891.9020243396421</v>
+        <v>570.0341597798454</v>
       </c>
       <c r="E35" t="n">
-        <v>891.9020243396421</v>
+        <v>570.0341597798454</v>
       </c>
       <c r="F35" t="n">
-        <v>501.7397251657483</v>
+        <v>570.0341597798454</v>
       </c>
       <c r="G35" t="n">
-        <v>501.7397251657483</v>
+        <v>172.5549356708459</v>
       </c>
       <c r="H35" t="n">
-        <v>191.8966056219403</v>
+        <v>172.5549356708459</v>
       </c>
       <c r="I35" t="n">
         <v>46.18410411589185</v>
       </c>
       <c r="J35" t="n">
-        <v>133.7505272079193</v>
+        <v>133.7505272079192</v>
       </c>
       <c r="K35" t="n">
         <v>385.7347004170564</v>
       </c>
       <c r="L35" t="n">
-        <v>750.6199767900017</v>
+        <v>750.6199767900016</v>
       </c>
       <c r="M35" t="n">
         <v>1173.231698093786</v>
@@ -6950,7 +6950,7 @@
         <v>1588.049721329405</v>
       </c>
       <c r="O35" t="n">
-        <v>1934.56297998589</v>
+        <v>1934.562979985891</v>
       </c>
       <c r="P35" t="n">
         <v>2192.629646474093</v>
@@ -6962,25 +6962,25 @@
         <v>2309.205205794593</v>
       </c>
       <c r="S35" t="n">
-        <v>2309.205205794593</v>
+        <v>2146.125868492643</v>
       </c>
       <c r="T35" t="n">
-        <v>2309.205205794593</v>
+        <v>1946.830739926175</v>
       </c>
       <c r="U35" t="n">
-        <v>2309.205205794593</v>
+        <v>1946.830739926175</v>
       </c>
       <c r="V35" t="n">
-        <v>1998.965924066736</v>
+        <v>1636.591458198318</v>
       </c>
       <c r="W35" t="n">
-        <v>1930.125181300743</v>
+        <v>1636.591458198318</v>
       </c>
       <c r="X35" t="n">
-        <v>1577.483028655377</v>
+        <v>1283.949305552952</v>
       </c>
       <c r="Y35" t="n">
-        <v>1577.483028655377</v>
+        <v>1283.949305552952</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>104.6446861364467</v>
       </c>
       <c r="K36" t="n">
-        <v>107.0896960156271</v>
+        <v>331.1839753888903</v>
       </c>
       <c r="L36" t="n">
-        <v>473.1041233870586</v>
+        <v>697.1984027603219</v>
       </c>
       <c r="M36" t="n">
-        <v>952.2049179845932</v>
+        <v>1176.299197357856</v>
       </c>
       <c r="N36" t="n">
-        <v>1459.693098393674</v>
+        <v>1609.072257675122</v>
       </c>
       <c r="O36" t="n">
-        <v>1857.529959353259</v>
+        <v>2006.909118634707</v>
       </c>
       <c r="P36" t="n">
-        <v>2159.826046513145</v>
+        <v>2309.205205794593</v>
       </c>
       <c r="Q36" t="n">
         <v>2309.205205794593</v>
@@ -7047,13 +7047,13 @@
         <v>1949.048454932263</v>
       </c>
       <c r="U36" t="n">
-        <v>1741.690502797775</v>
+        <v>1812.251007895288</v>
       </c>
       <c r="V36" t="n">
-        <v>1527.362000181746</v>
+        <v>1597.922505279259</v>
       </c>
       <c r="W36" t="n">
-        <v>1293.948249069258</v>
+        <v>1364.508754166771</v>
       </c>
       <c r="X36" t="n">
         <v>1177.480859576952</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.18410411589185</v>
+        <v>314.5909402259134</v>
       </c>
       <c r="C37" t="n">
-        <v>46.18410411589185</v>
+        <v>314.5909402259134</v>
       </c>
       <c r="D37" t="n">
-        <v>46.18410411589185</v>
+        <v>314.5909402259134</v>
       </c>
       <c r="E37" t="n">
-        <v>46.18410411589185</v>
+        <v>314.5909402259134</v>
       </c>
       <c r="F37" t="n">
-        <v>46.18410411589185</v>
+        <v>314.5909402259134</v>
       </c>
       <c r="G37" t="n">
-        <v>46.18410411589185</v>
+        <v>166.2626721511627</v>
       </c>
       <c r="H37" t="n">
-        <v>46.18410411589185</v>
+        <v>166.2626721511627</v>
       </c>
       <c r="I37" t="n">
         <v>46.18410411589185</v>
@@ -7129,16 +7129,16 @@
         <v>449.7254625849146</v>
       </c>
       <c r="V37" t="n">
-        <v>449.7254625849146</v>
+        <v>314.5909402259134</v>
       </c>
       <c r="W37" t="n">
-        <v>181.1318981636676</v>
+        <v>314.5909402259134</v>
       </c>
       <c r="X37" t="n">
-        <v>46.18410411589185</v>
+        <v>314.5909402259134</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.18410411589185</v>
+        <v>314.5909402259134</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>773.7884962808225</v>
+        <v>748.5908440894592</v>
       </c>
       <c r="C38" t="n">
-        <v>773.7884962808225</v>
+        <v>748.5908440894592</v>
       </c>
       <c r="D38" t="n">
-        <v>436.3464032897857</v>
+        <v>411.1487510984224</v>
       </c>
       <c r="E38" t="n">
-        <v>436.3464032897857</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="F38" t="n">
         <v>46.18410411589185</v>
@@ -7172,13 +7172,13 @@
         <v>46.18410411589185</v>
       </c>
       <c r="J38" t="n">
-        <v>133.7505272079192</v>
+        <v>133.7505272079193</v>
       </c>
       <c r="K38" t="n">
         <v>385.7347004170564</v>
       </c>
       <c r="L38" t="n">
-        <v>750.6199767900016</v>
+        <v>750.6199767900017</v>
       </c>
       <c r="M38" t="n">
         <v>1173.231698093786</v>
@@ -7187,7 +7187,7 @@
         <v>1588.049721329405</v>
       </c>
       <c r="O38" t="n">
-        <v>1934.562979985891</v>
+        <v>1934.56297998589</v>
       </c>
       <c r="P38" t="n">
         <v>2192.629646474093</v>
@@ -7196,28 +7196,28 @@
         <v>2309.205205794593</v>
       </c>
       <c r="R38" t="n">
-        <v>2309.205205794593</v>
+        <v>2253.704054921308</v>
       </c>
       <c r="S38" t="n">
-        <v>2146.125868492643</v>
+        <v>2090.624717619358</v>
       </c>
       <c r="T38" t="n">
-        <v>1946.830739926175</v>
+        <v>1891.32958905289</v>
       </c>
       <c r="U38" t="n">
-        <v>1713.865438450148</v>
+        <v>1815.627854552366</v>
       </c>
       <c r="V38" t="n">
-        <v>1471.509780383631</v>
+        <v>1815.627854552366</v>
       </c>
       <c r="W38" t="n">
-        <v>1139.564730729231</v>
+        <v>1483.682804897966</v>
       </c>
       <c r="X38" t="n">
-        <v>1139.564730729231</v>
+        <v>1483.682804897966</v>
       </c>
       <c r="Y38" t="n">
-        <v>1139.564730729231</v>
+        <v>1114.367078537867</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>46.18410411589185</v>
       </c>
       <c r="J39" t="n">
-        <v>46.18410411589185</v>
+        <v>104.6446861364467</v>
       </c>
       <c r="K39" t="n">
-        <v>107.0896960156271</v>
+        <v>331.1839753888903</v>
       </c>
       <c r="L39" t="n">
-        <v>473.1041233870586</v>
+        <v>697.1984027603219</v>
       </c>
       <c r="M39" t="n">
-        <v>952.2049179845932</v>
+        <v>1176.299197357856</v>
       </c>
       <c r="N39" t="n">
-        <v>1459.693098393674</v>
+        <v>1683.787377766937</v>
       </c>
       <c r="O39" t="n">
-        <v>1857.529959353259</v>
+        <v>2081.624238726522</v>
       </c>
       <c r="P39" t="n">
         <v>2159.826046513145</v>
@@ -7275,16 +7275,16 @@
         <v>2309.205205794593</v>
       </c>
       <c r="R39" t="n">
-        <v>2268.553190484151</v>
+        <v>2309.205205794593</v>
       </c>
       <c r="S39" t="n">
-        <v>2127.83453650294</v>
+        <v>2168.486551813382</v>
       </c>
       <c r="T39" t="n">
-        <v>1949.048454932263</v>
+        <v>1989.700470242705</v>
       </c>
       <c r="U39" t="n">
-        <v>1741.690502797775</v>
+        <v>1812.251007895288</v>
       </c>
       <c r="V39" t="n">
         <v>1597.922505279259</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>242.5595173026109</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="C40" t="n">
-        <v>94.44693999041763</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="D40" t="n">
-        <v>94.44693999041763</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="E40" t="n">
-        <v>94.44693999041763</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="F40" t="n">
-        <v>94.44693999041763</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="G40" t="n">
-        <v>94.44693999041763</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="H40" t="n">
         <v>46.18410411589185</v>
@@ -7357,25 +7357,25 @@
         <v>718.0837622289309</v>
       </c>
       <c r="S40" t="n">
-        <v>718.0837622289309</v>
+        <v>521.968719544595</v>
       </c>
       <c r="T40" t="n">
-        <v>718.0837622289309</v>
+        <v>314.8343695422335</v>
       </c>
       <c r="U40" t="n">
-        <v>449.7254625849146</v>
+        <v>314.8343695422335</v>
       </c>
       <c r="V40" t="n">
-        <v>449.7254625849146</v>
+        <v>314.8343695422335</v>
       </c>
       <c r="W40" t="n">
-        <v>449.7254625849146</v>
+        <v>46.24080512098658</v>
       </c>
       <c r="X40" t="n">
-        <v>242.5595173026109</v>
+        <v>46.24080512098658</v>
       </c>
       <c r="Y40" t="n">
-        <v>242.5595173026109</v>
+        <v>46.24080512098658</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>523.7856100851782</v>
+        <v>1439.087452084434</v>
       </c>
       <c r="C41" t="n">
-        <v>356.0272236596998</v>
+        <v>1090.948540759736</v>
       </c>
       <c r="D41" t="n">
-        <v>356.0272236596998</v>
+        <v>753.5064477686992</v>
       </c>
       <c r="E41" t="n">
-        <v>356.0272236596998</v>
+        <v>753.5064477686992</v>
       </c>
       <c r="F41" t="n">
-        <v>356.0272236596998</v>
+        <v>753.5064477686992</v>
       </c>
       <c r="G41" t="n">
         <v>356.0272236596998</v>
@@ -7433,28 +7433,28 @@
         <v>2309.205205794593</v>
       </c>
       <c r="R41" t="n">
-        <v>2253.704054921308</v>
+        <v>2309.205205794593</v>
       </c>
       <c r="S41" t="n">
-        <v>2253.704054921308</v>
+        <v>2146.125868492643</v>
       </c>
       <c r="T41" t="n">
-        <v>2253.704054921308</v>
+        <v>2115.102968260699</v>
       </c>
       <c r="U41" t="n">
-        <v>2253.704054921308</v>
+        <v>2115.102968260699</v>
       </c>
       <c r="V41" t="n">
-        <v>1943.464773193451</v>
+        <v>1804.863686532842</v>
       </c>
       <c r="W41" t="n">
-        <v>1611.519723539051</v>
+        <v>1804.863686532842</v>
       </c>
       <c r="X41" t="n">
-        <v>1258.877570893684</v>
+        <v>1804.863686532842</v>
       </c>
       <c r="Y41" t="n">
-        <v>889.5618445335863</v>
+        <v>1804.863686532842</v>
       </c>
     </row>
     <row r="42">
@@ -7491,16 +7491,16 @@
         <v>46.18410411589185</v>
       </c>
       <c r="K42" t="n">
-        <v>256.4688552970748</v>
+        <v>272.7233933683355</v>
       </c>
       <c r="L42" t="n">
-        <v>622.4832826685063</v>
+        <v>638.737820739767</v>
       </c>
       <c r="M42" t="n">
-        <v>1101.584077266041</v>
+        <v>1117.838615337302</v>
       </c>
       <c r="N42" t="n">
-        <v>1609.072257675122</v>
+        <v>1625.326795746383</v>
       </c>
       <c r="O42" t="n">
         <v>2006.909118634707</v>
@@ -7524,7 +7524,7 @@
         <v>1741.690502797775</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.922505279259</v>
+        <v>1527.362000181746</v>
       </c>
       <c r="W42" t="n">
         <v>1364.508754166771</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>194.5371905309248</v>
+        <v>1895.660953699155</v>
       </c>
       <c r="C43" t="n">
-        <v>46.42461321873154</v>
+        <v>1895.660953699155</v>
       </c>
       <c r="D43" t="n">
-        <v>46.42461321873154</v>
+        <v>1895.660953699155</v>
       </c>
       <c r="E43" t="n">
-        <v>46.18410411589185</v>
+        <v>1895.660953699155</v>
       </c>
       <c r="F43" t="n">
-        <v>46.18410411589185</v>
+        <v>1895.660953699155</v>
       </c>
       <c r="G43" t="n">
-        <v>46.18410411589185</v>
+        <v>1895.660953699155</v>
       </c>
       <c r="H43" t="n">
-        <v>46.18410411589185</v>
+        <v>1757.384115716824</v>
       </c>
       <c r="I43" t="n">
-        <v>46.18410411589185</v>
+        <v>1637.305547681553</v>
       </c>
       <c r="J43" t="n">
-        <v>46.18410411589185</v>
+        <v>1637.305547681553</v>
       </c>
       <c r="K43" t="n">
-        <v>105.5789421237224</v>
+        <v>1696.700385689384</v>
       </c>
       <c r="L43" t="n">
-        <v>231.4027666548741</v>
+        <v>1822.524210220536</v>
       </c>
       <c r="M43" t="n">
-        <v>373.3460302341326</v>
+        <v>1964.467473799794</v>
       </c>
       <c r="N43" t="n">
-        <v>517.8341022225277</v>
+        <v>2108.955545788189</v>
       </c>
       <c r="O43" t="n">
-        <v>636.8339289477277</v>
+        <v>2227.955372513389</v>
       </c>
       <c r="P43" t="n">
-        <v>718.0837622289309</v>
+        <v>2309.205205794593</v>
       </c>
       <c r="Q43" t="n">
-        <v>696.7563727651144</v>
+        <v>2309.205205794593</v>
       </c>
       <c r="R43" t="n">
-        <v>696.7563727651144</v>
+        <v>2309.205205794593</v>
       </c>
       <c r="S43" t="n">
-        <v>696.7563727651144</v>
+        <v>2309.205205794593</v>
       </c>
       <c r="T43" t="n">
-        <v>696.7563727651144</v>
+        <v>2309.205205794593</v>
       </c>
       <c r="U43" t="n">
-        <v>428.398073121098</v>
+        <v>2309.205205794593</v>
       </c>
       <c r="V43" t="n">
-        <v>194.5371905309248</v>
+        <v>2095.629927226972</v>
       </c>
       <c r="W43" t="n">
-        <v>194.5371905309248</v>
+        <v>2095.629927226972</v>
       </c>
       <c r="X43" t="n">
-        <v>194.5371905309248</v>
+        <v>2095.629927226972</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.5371905309248</v>
+        <v>1895.660953699155</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>543.3869363971755</v>
+        <v>833.4494507810167</v>
       </c>
       <c r="C44" t="n">
-        <v>543.3869363971755</v>
+        <v>464.486933840605</v>
       </c>
       <c r="D44" t="n">
-        <v>543.3869363971755</v>
+        <v>464.486933840605</v>
       </c>
       <c r="E44" t="n">
-        <v>543.3869363971755</v>
+        <v>464.486933840605</v>
       </c>
       <c r="F44" t="n">
-        <v>543.3869363971755</v>
+        <v>464.486933840605</v>
       </c>
       <c r="G44" t="n">
-        <v>543.3869363971755</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="H44" t="n">
-        <v>212.720211237654</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="I44" t="n">
         <v>46.18410411589185</v>
@@ -7661,7 +7661,7 @@
         <v>1588.049721329405</v>
       </c>
       <c r="O44" t="n">
-        <v>1934.562979985891</v>
+        <v>1934.56297998589</v>
       </c>
       <c r="P44" t="n">
         <v>2192.629646474093</v>
@@ -7670,28 +7670,28 @@
         <v>2309.205205794593</v>
       </c>
       <c r="R44" t="n">
-        <v>2309.205205794593</v>
+        <v>2232.880449305595</v>
       </c>
       <c r="S44" t="n">
-        <v>2125.302262876929</v>
+        <v>2183.076012273246</v>
       </c>
       <c r="T44" t="n">
-        <v>1905.183528694747</v>
+        <v>1962.957278091064</v>
       </c>
       <c r="U44" t="n">
-        <v>1905.183528694747</v>
+        <v>1962.957278091064</v>
       </c>
       <c r="V44" t="n">
-        <v>1574.120641351176</v>
+        <v>1962.957278091064</v>
       </c>
       <c r="W44" t="n">
-        <v>1574.120641351176</v>
+        <v>1610.18862282095</v>
       </c>
       <c r="X44" t="n">
-        <v>1200.654883090097</v>
+        <v>1610.18862282095</v>
       </c>
       <c r="Y44" t="n">
-        <v>929.9867764612973</v>
+        <v>1220.049290845139</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>881.7230221093383</v>
+        <v>842.3831163602381</v>
       </c>
       <c r="C45" t="n">
-        <v>707.2699928282113</v>
+        <v>667.9300870791111</v>
       </c>
       <c r="D45" t="n">
-        <v>558.3355831669601</v>
+        <v>518.9956774178598</v>
       </c>
       <c r="E45" t="n">
-        <v>399.0981281615045</v>
+        <v>359.7582224124043</v>
       </c>
       <c r="F45" t="n">
-        <v>252.5635701883895</v>
+        <v>359.7582224124043</v>
       </c>
       <c r="G45" t="n">
-        <v>114.4720645748181</v>
+        <v>221.666716798833</v>
       </c>
       <c r="H45" t="n">
         <v>114.4720645748181</v>
@@ -7725,16 +7725,16 @@
         <v>46.18410411589185</v>
       </c>
       <c r="J45" t="n">
-        <v>46.18410411589185</v>
+        <v>104.6446861364467</v>
       </c>
       <c r="K45" t="n">
-        <v>272.7233933683355</v>
+        <v>331.1839753888903</v>
       </c>
       <c r="L45" t="n">
-        <v>638.737820739767</v>
+        <v>697.1984027603219</v>
       </c>
       <c r="M45" t="n">
-        <v>952.2049179845932</v>
+        <v>1176.299197357856</v>
       </c>
       <c r="N45" t="n">
         <v>1459.693098393674</v>
@@ -7752,25 +7752,25 @@
         <v>2247.729584868438</v>
       </c>
       <c r="S45" t="n">
-        <v>2183.121180810039</v>
+        <v>2086.187325271513</v>
       </c>
       <c r="T45" t="n">
-        <v>2183.121180810039</v>
+        <v>1886.577638085123</v>
       </c>
       <c r="U45" t="n">
-        <v>1954.939623059837</v>
+        <v>1747.384380290669</v>
       </c>
       <c r="V45" t="n">
-        <v>1719.787514828095</v>
+        <v>1512.232272058926</v>
       </c>
       <c r="W45" t="n">
-        <v>1465.550158099893</v>
+        <v>1257.994915330725</v>
       </c>
       <c r="X45" t="n">
-        <v>1257.69865789436</v>
+        <v>1050.143415125192</v>
       </c>
       <c r="Y45" t="n">
-        <v>1049.938359129406</v>
+        <v>842.3831163602381</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>271.7440936551511</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="C46" t="n">
-        <v>271.7440936551511</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="D46" t="n">
-        <v>271.7440936551511</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="E46" t="n">
-        <v>271.7440936551511</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="F46" t="n">
-        <v>271.7440936551511</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="G46" t="n">
-        <v>102.5922199646868</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="H46" t="n">
-        <v>102.5922199646868</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="I46" t="n">
-        <v>102.5922199646868</v>
+        <v>46.18410411589185</v>
       </c>
       <c r="J46" t="n">
         <v>46.18410411589185</v>
@@ -7828,28 +7828,28 @@
         <v>595.6284670451653</v>
       </c>
       <c r="R46" t="n">
-        <v>561.1612636921117</v>
+        <v>595.6284670451653</v>
       </c>
       <c r="S46" t="n">
-        <v>561.1612636921117</v>
+        <v>595.6284670451653</v>
       </c>
       <c r="T46" t="n">
-        <v>561.1612636921117</v>
+        <v>367.67051142709</v>
       </c>
       <c r="U46" t="n">
-        <v>561.1612636921117</v>
+        <v>367.67051142709</v>
       </c>
       <c r="V46" t="n">
-        <v>561.1612636921117</v>
+        <v>266.976683259422</v>
       </c>
       <c r="W46" t="n">
-        <v>271.7440936551511</v>
+        <v>266.976683259422</v>
       </c>
       <c r="X46" t="n">
-        <v>271.7440936551511</v>
+        <v>266.976683259422</v>
       </c>
       <c r="Y46" t="n">
-        <v>271.7440936551511</v>
+        <v>46.18410411589185</v>
       </c>
     </row>
   </sheetData>
@@ -8067,13 +8067,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8301,13 +8301,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133072</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8547,10 +8547,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>312.0356093408176</v>
+        <v>462.923649019048</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>59.18924805761894</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>67.03994239035347</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>188.9954187380175</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>298.3982987472641</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>59.18924805761894</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720742</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>67.03994239035347</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,13 +9252,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>462.923649019048</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>242.9929503653761</v>
       </c>
       <c r="Q18" t="n">
         <v>59.18924805761894</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>67.03994239035347</v>
       </c>
       <c r="K21" t="n">
-        <v>38.10737905978747</v>
+        <v>97.15847200984284</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>67.03994239035347</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,7 +9960,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>298.3982987472642</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>242.9929503653761</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>59.18924805761894</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>67.03994239035347</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>168.4317094820784</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10206,7 +10206,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>163.3781481593817</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>38.1073790597874</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>403.8725560689924</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>59.18924805761893</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>67.03994239035347</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>97.15847200984277</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10917,7 +10917,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>92.10491068714605</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11139,7 +11139,7 @@
         <v>67.03994239035347</v>
       </c>
       <c r="K42" t="n">
-        <v>248.0465116880728</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11151,7 +11151,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>377.4435939522238</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11306,13 +11306,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>67.03994239035347</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,10 +11382,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>298.3982987472641</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>252.9845163907624</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23303,10 +23303,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>75.56150892410815</v>
       </c>
       <c r="S11" t="n">
-        <v>182.0639134884867</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.91754684036</v>
@@ -23315,13 +23315,13 @@
         <v>251.251018020823</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>307.0660747235087</v>
       </c>
       <c r="W11" t="n">
-        <v>262.3024498429979</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23340,13 +23340,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>94.70476360510307</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23382,10 +23382,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>60.86086471689315</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.9268370009556</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23394,10 +23394,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>87.14496512162995</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>87.46364326567503</v>
       </c>
       <c r="G13" t="n">
         <v>167.4603549535597</v>
@@ -23437,7 +23437,7 @@
         <v>139.4931519144747</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>55.84403469030696</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.72948512873494</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>153.4345885896158</v>
@@ -23467,7 +23467,7 @@
         <v>214.769261817049</v>
       </c>
       <c r="T13" t="n">
-        <v>225.6783760618945</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2900862071327</v>
@@ -23476,13 +23476,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>24.12676911595443</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,16 +23495,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>174.7220639296872</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>67.72776198235874</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>75.56150892410814</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>182.0639134884867</v>
@@ -23549,10 +23549,10 @@
         <v>217.91754684036</v>
       </c>
       <c r="U14" t="n">
-        <v>251.251018020823</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,10 +23571,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>35.5540390350485</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23619,10 +23619,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>42.16038568396033</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.9268370009556</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>197.6135903145267</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>27.25436684455822</v>
       </c>
       <c r="G16" t="n">
         <v>167.4603549535597</v>
@@ -23695,19 +23695,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.72948512873494</v>
+        <v>41.72948512873495</v>
       </c>
       <c r="R16" t="n">
         <v>153.4345885896158</v>
       </c>
       <c r="S16" t="n">
-        <v>208.7291279655751</v>
+        <v>214.769261817049</v>
       </c>
       <c r="T16" t="n">
         <v>225.6783760618945</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2900862071327</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23729,22 +23729,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>174.7220639296872</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>133.5166797465347</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.119801427466</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23777,16 +23777,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>75.56150892410815</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>182.0639134884867</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.91754684036</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.251018020823</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23811,7 +23811,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>11.79830434684837</v>
+        <v>166.9002258500174</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23820,13 +23820,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.7105905574356</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>106.1227057017747</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23868,7 +23868,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>170.3290083508919</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,19 +23935,19 @@
         <v>41.72948512873495</v>
       </c>
       <c r="R19" t="n">
-        <v>87.30068867535782</v>
+        <v>153.4345885896158</v>
       </c>
       <c r="S19" t="n">
         <v>214.769261817049</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.6783760618945</v>
       </c>
       <c r="U19" t="n">
         <v>286.2900862071327</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>285.0048704245821</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,13 +23981,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.119801427466</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.3600579079264</v>
       </c>
       <c r="I20" t="n">
-        <v>164.8707460505445</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,22 +24014,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>75.56150892410815</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>182.0639134884867</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.91754684036</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.251018020823</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>214.0639246316468</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,10 +24045,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>159.3872331567897</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24057,7 +24057,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24066,7 +24066,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.605080854337</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,13 +24096,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.9268370009556</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>94.70476360510295</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24172,16 +24172,16 @@
         <v>41.72948512873495</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>153.4345885896158</v>
       </c>
       <c r="S22" t="n">
-        <v>214.769261817049</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2900862071327</v>
+        <v>182.7878047860958</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>209.4881737587791</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>414.119801427466</v>
       </c>
       <c r="H23" t="n">
-        <v>71.05037077621307</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>164.8707460505445</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,16 +24260,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.251018020823</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>59.07521631083927</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24294,16 +24294,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>106.1227057017747</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.3670422001498679</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,10 +24330,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>60.86086471689316</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>87.64803018739099</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24342,7 +24342,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>152.2735024425521</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>225.6783760618945</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2900862071327</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>84.56806958751409</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,16 +24440,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.615095677340662</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,10 +24458,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>327.3600579079264</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>164.8707460505445</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,10 +24491,10 @@
         <v>75.56150892410815</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>182.0639134884867</v>
       </c>
       <c r="T26" t="n">
-        <v>217.91754684036</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.251018020823</v>
@@ -24506,7 +24506,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>210.144070059941</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24534,7 +24534,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.7105905574356</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24579,16 +24579,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>11.29523928108731</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>166.9002258500173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>17.89814379763328</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24643,13 +24643,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.72948512873495</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>153.4345885896158</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.8457103522595</v>
       </c>
       <c r="T28" t="n">
         <v>225.6783760618945</v>
@@ -24680,25 +24680,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>344.657522211451</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>334.0676720611264</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>224.9470381016078</v>
       </c>
       <c r="F29" t="n">
         <v>386.2606761821549</v>
       </c>
       <c r="G29" t="n">
-        <v>86.78135581293213</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>306.7446883483699</v>
       </c>
       <c r="I29" t="n">
-        <v>144.255376490988</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.94613936455164</v>
       </c>
       <c r="S29" t="n">
         <v>161.4485439289301</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>197.3021772808035</v>
       </c>
       <c r="U29" t="n">
-        <v>230.6356484612665</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>307.1368889105784</v>
       </c>
       <c r="W29" t="n">
-        <v>328.6255991578565</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>365.622569096497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24841,25 +24841,25 @@
         <v>146.6314515390713</v>
       </c>
       <c r="D31" t="n">
-        <v>128.0001034586558</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>125.8185930870126</v>
+        <v>125.8185930870127</v>
       </c>
       <c r="F31" t="n">
         <v>124.8056784633747</v>
       </c>
       <c r="G31" t="n">
-        <v>146.8449853940031</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>136.8940696025075</v>
+        <v>12.4661257002921</v>
       </c>
       <c r="I31" t="n">
         <v>118.8777823549182</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>35.22866513075045</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24886,25 +24886,25 @@
         <v>132.8192190300593</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>194.1538922574925</v>
       </c>
       <c r="T31" t="n">
         <v>205.0630065023379</v>
       </c>
       <c r="U31" t="n">
-        <v>27.8458962964489</v>
+        <v>265.6747166475762</v>
       </c>
       <c r="V31" t="n">
         <v>231.5222737642715</v>
       </c>
       <c r="W31" t="n">
-        <v>265.9076287770345</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>205.0942858294806</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>197.9692837925383</v>
       </c>
     </row>
     <row r="32">
@@ -24914,22 +24914,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>362.118472103924</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>334.0676720611264</v>
+        <v>255.1017476286259</v>
       </c>
       <c r="E32" t="n">
-        <v>361.3150005127052</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>386.2606761821549</v>
       </c>
       <c r="G32" t="n">
-        <v>393.5044318679094</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>306.7446883483698</v>
@@ -24965,25 +24965,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>161.4485439289301</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>197.3021772808035</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>230.6356484612665</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>307.1368889105784</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>328.6255991578565</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.2450288223957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25078,10 +25078,10 @@
         <v>146.6314515390713</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>128.0001034586558</v>
       </c>
       <c r="E34" t="n">
-        <v>125.8185930870126</v>
+        <v>125.8185930870127</v>
       </c>
       <c r="F34" t="n">
         <v>124.8056784633747</v>
@@ -25093,10 +25093,10 @@
         <v>136.8940696025075</v>
       </c>
       <c r="I34" t="n">
-        <v>41.75874531618999</v>
+        <v>118.8777823549182</v>
       </c>
       <c r="J34" t="n">
-        <v>35.22866513075043</v>
+        <v>35.22866513075044</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,10 +25117,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>21.11411556917842</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>132.8192190300593</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>205.0630065023379</v>
       </c>
       <c r="U34" t="n">
-        <v>265.6747166475762</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>231.5222737642715</v>
+        <v>180.1035557366678</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>265.9076287770345</v>
       </c>
       <c r="X34" t="n">
         <v>205.0942858294806</v>
@@ -25151,28 +25151,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>362.118472103924</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>334.0676720611264</v>
       </c>
       <c r="E35" t="n">
         <v>361.3150005127052</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>386.2606761821549</v>
       </c>
       <c r="G35" t="n">
-        <v>393.5044318679094</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>306.7446883483698</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>19.14825325158348</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,10 +25202,10 @@
         <v>54.94613936455163</v>
       </c>
       <c r="S35" t="n">
-        <v>161.4485439289301</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>197.3021772808035</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>230.6356484612665</v>
@@ -25214,7 +25214,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>260.4732638195239</v>
+        <v>328.6255991578565</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25287,7 +25287,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>69.85490004653821</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25296,7 +25296,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>69.85490004653805</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25318,22 +25318,22 @@
         <v>128.0001034586558</v>
       </c>
       <c r="E37" t="n">
-        <v>125.8185930870126</v>
+        <v>125.8185930870127</v>
       </c>
       <c r="F37" t="n">
         <v>124.8056784633747</v>
       </c>
       <c r="G37" t="n">
-        <v>146.8449853940031</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>136.8940696025075</v>
       </c>
       <c r="I37" t="n">
-        <v>118.8777823549182</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>35.22866513075043</v>
+        <v>35.22866513075044</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25369,13 +25369,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>231.5222737642715</v>
+        <v>97.73909662886035</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>265.9076287770345</v>
       </c>
       <c r="X37" t="n">
-        <v>71.49596972218259</v>
+        <v>205.0942858294806</v>
       </c>
       <c r="Y37" t="n">
         <v>197.9692837925383</v>
@@ -25397,10 +25397,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>361.3150005127052</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>386.2606761821549</v>
       </c>
       <c r="G38" t="n">
         <v>393.5044318679094</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.94613936455163</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25445,10 +25445,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>155.6909313057477</v>
       </c>
       <c r="V38" t="n">
-        <v>67.20478742472679</v>
+        <v>307.1368889105784</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25457,7 +25457,7 @@
         <v>349.1157311189125</v>
       </c>
       <c r="Y38" t="n">
-        <v>365.622569096497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>40.24549515733663</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25524,10 +25524,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>29.60940488920147</v>
       </c>
       <c r="V39" t="n">
-        <v>69.85490004653812</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>159.2166106223808</v>
+        <v>159.160476627337</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.6314515390713</v>
       </c>
       <c r="D40" t="n">
         <v>128.0001034586558</v>
       </c>
       <c r="E40" t="n">
-        <v>125.8185930870126</v>
+        <v>125.8185930870127</v>
       </c>
       <c r="F40" t="n">
         <v>124.8056784633747</v>
@@ -25564,13 +25564,13 @@
         <v>146.8449853940031</v>
       </c>
       <c r="H40" t="n">
-        <v>89.11386208672698</v>
+        <v>136.8940696025075</v>
       </c>
       <c r="I40" t="n">
         <v>118.8777823549182</v>
       </c>
       <c r="J40" t="n">
-        <v>35.22866513075043</v>
+        <v>35.22866513075044</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25597,22 +25597,22 @@
         <v>132.8192190300593</v>
       </c>
       <c r="S40" t="n">
-        <v>194.1538922574925</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>205.0630065023379</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>265.6747166475762</v>
       </c>
       <c r="V40" t="n">
         <v>231.5222737642715</v>
       </c>
       <c r="W40" t="n">
-        <v>265.9076287770345</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>205.0942858294806</v>
       </c>
       <c r="Y40" t="n">
         <v>197.9692837925383</v>
@@ -25628,10 +25628,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>178.5767196502274</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>334.0676720611264</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>361.3150005127052</v>
@@ -25640,7 +25640,7 @@
         <v>386.2606761821549</v>
       </c>
       <c r="G41" t="n">
-        <v>393.5044318679094</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25673,13 +25673,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.94613936455163</v>
       </c>
       <c r="S41" t="n">
-        <v>161.4485439289301</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>197.3021772808035</v>
+        <v>166.5895060511791</v>
       </c>
       <c r="U41" t="n">
         <v>230.6356484612665</v>
@@ -25688,13 +25688,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>328.6255991578565</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>349.1157311189125</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>365.622569096497</v>
       </c>
     </row>
     <row r="42">
@@ -25764,10 +25764,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
         <v>69.85490004653812</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25786,13 +25786,13 @@
         <v>159.2166106223808</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>146.6314515390713</v>
       </c>
       <c r="D43" t="n">
         <v>128.0001034586558</v>
       </c>
       <c r="E43" t="n">
-        <v>125.5804890752014</v>
+        <v>125.8185930870127</v>
       </c>
       <c r="F43" t="n">
         <v>124.8056784633747</v>
@@ -25801,13 +25801,13 @@
         <v>146.8449853940031</v>
       </c>
       <c r="H43" t="n">
-        <v>136.8940696025075</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>118.8777823549182</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>35.22866513075043</v>
+        <v>35.22866513075044</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>21.11411556917842</v>
       </c>
       <c r="R43" t="n">
         <v>132.8192190300593</v>
@@ -25840,10 +25840,10 @@
         <v>205.0630065023379</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>265.6747166475762</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>20.08274798232682</v>
       </c>
       <c r="W43" t="n">
         <v>265.9076287770345</v>
@@ -25852,7 +25852,7 @@
         <v>205.0942858294806</v>
       </c>
       <c r="Y43" t="n">
-        <v>197.9692837925383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25877,13 +25877,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.119801427466</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.3600579079264</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>164.8707460505445</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,10 +25910,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>75.56150892410814</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>132.7575208264619</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,16 +25922,16 @@
         <v>251.251018020823</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>118.2765130935423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25953,13 +25953,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>106.1227057017747</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,13 +25992,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>95.96451698314084</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.6135903145267</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>88.09841695619116</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4603549535597</v>
       </c>
       <c r="H46" t="n">
         <v>157.509439162064</v>
@@ -26044,7 +26044,7 @@
         <v>139.4931519144747</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>55.84403469030696</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>41.72948512873494</v>
       </c>
       <c r="R46" t="n">
-        <v>119.3120572700927</v>
+        <v>153.4345885896158</v>
       </c>
       <c r="S46" t="n">
         <v>214.769261817049</v>
       </c>
       <c r="T46" t="n">
-        <v>225.6783760618945</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2900862071327</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>152.4507534378366</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>567476.9141113496</v>
+        <v>567476.9141113498</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>567476.9141113496</v>
+        <v>567476.9141113497</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>567476.91411135</v>
+        <v>567476.9141113497</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>567476.9141113497</v>
+        <v>567476.9141113496</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>619533.4929548987</v>
+        <v>619533.4929548986</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>619533.4929548987</v>
+        <v>619533.4929548989</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>567476.9141113496</v>
+        <v>567476.9141113498</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
+        <v>392815.5399266016</v>
+      </c>
+      <c r="F2" t="n">
         <v>392815.5399266017</v>
-      </c>
-      <c r="F2" t="n">
-        <v>392815.5399266016</v>
       </c>
       <c r="G2" t="n">
         <v>392815.5399266017</v>
@@ -26332,28 +26332,28 @@
         <v>392815.5399266016</v>
       </c>
       <c r="I2" t="n">
-        <v>392815.5399266015</v>
+        <v>392815.5399266016</v>
       </c>
       <c r="J2" t="n">
-        <v>392815.5399266017</v>
+        <v>392815.5399266016</v>
       </c>
       <c r="K2" t="n">
-        <v>438249.6974135215</v>
+        <v>438249.6974135216</v>
       </c>
       <c r="L2" t="n">
-        <v>438249.6974135217</v>
+        <v>438249.6974135216</v>
       </c>
       <c r="M2" t="n">
         <v>431857.9740592634</v>
       </c>
       <c r="N2" t="n">
-        <v>431857.9740592635</v>
+        <v>431857.9740592633</v>
       </c>
       <c r="O2" t="n">
-        <v>431857.9740592634</v>
+        <v>431857.9740592633</v>
       </c>
       <c r="P2" t="n">
-        <v>392815.5399266015</v>
+        <v>392815.5399266016</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>321450.8742449153</v>
+        <v>320962.9529903555</v>
       </c>
       <c r="C4" t="n">
-        <v>321450.8742449153</v>
+        <v>320962.9529903555</v>
       </c>
       <c r="D4" t="n">
-        <v>321450.8742449154</v>
+        <v>320962.9529903556</v>
       </c>
       <c r="E4" t="n">
-        <v>44671.06079338487</v>
+        <v>44161.15669272158</v>
       </c>
       <c r="F4" t="n">
-        <v>44671.06079338487</v>
+        <v>44161.15669272158</v>
       </c>
       <c r="G4" t="n">
-        <v>44671.06079338487</v>
+        <v>44161.15669272158</v>
       </c>
       <c r="H4" t="n">
-        <v>44671.06079338487</v>
+        <v>44161.15669272158</v>
       </c>
       <c r="I4" t="n">
-        <v>44671.06079338487</v>
+        <v>44161.15669272158</v>
       </c>
       <c r="J4" t="n">
-        <v>44671.06079338487</v>
+        <v>44161.15669272158</v>
       </c>
       <c r="K4" t="n">
-        <v>78054.77102741957</v>
+        <v>77540.46155777467</v>
       </c>
       <c r="L4" t="n">
-        <v>78054.77102741959</v>
+        <v>77540.46155777467</v>
       </c>
       <c r="M4" t="n">
-        <v>74421.41327884066</v>
+        <v>73911.50917817737</v>
       </c>
       <c r="N4" t="n">
-        <v>74421.41327884066</v>
+        <v>73911.50917817735</v>
       </c>
       <c r="O4" t="n">
-        <v>74421.41327884066</v>
+        <v>73911.50917817735</v>
       </c>
       <c r="P4" t="n">
-        <v>44671.06079338487</v>
+        <v>44161.15669272158</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>41514.6857974852</v>
+        <v>41514.68579748519</v>
       </c>
       <c r="F5" t="n">
-        <v>41514.6857974852</v>
+        <v>41514.68579748519</v>
       </c>
       <c r="G5" t="n">
         <v>41514.68579748519</v>
@@ -26494,7 +26494,7 @@
         <v>41514.68579748519</v>
       </c>
       <c r="K5" t="n">
-        <v>44342.20713515306</v>
+        <v>44342.20713515305</v>
       </c>
       <c r="L5" t="n">
         <v>44342.20713515306</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165279.7528579879</v>
+        <v>165767.6741125475</v>
       </c>
       <c r="C6" t="n">
-        <v>246049.1843895353</v>
+        <v>246537.1056440951</v>
       </c>
       <c r="D6" t="n">
-        <v>246049.1843895355</v>
+        <v>246537.105644095</v>
       </c>
       <c r="E6" t="n">
-        <v>-30183.74271203343</v>
+        <v>-29673.83861137024</v>
       </c>
       <c r="F6" t="n">
-        <v>306629.7933357316</v>
+        <v>307139.6974363949</v>
       </c>
       <c r="G6" t="n">
-        <v>306629.7933357317</v>
+        <v>307139.6974363949</v>
       </c>
       <c r="H6" t="n">
-        <v>306629.7933357315</v>
+        <v>307139.6974363948</v>
       </c>
       <c r="I6" t="n">
-        <v>306629.7933357314</v>
+        <v>307139.6974363948</v>
       </c>
       <c r="J6" t="n">
-        <v>243569.8507366254</v>
+        <v>244079.7548372886</v>
       </c>
       <c r="K6" t="n">
-        <v>294727.766441075</v>
+        <v>295242.0759107199</v>
       </c>
       <c r="L6" t="n">
-        <v>315852.719250949</v>
+        <v>316367.0287205938</v>
       </c>
       <c r="M6" t="n">
-        <v>234870.3969089803</v>
+        <v>235380.3010096436</v>
       </c>
       <c r="N6" t="n">
-        <v>314188.7614794353</v>
+        <v>314698.6655800984</v>
       </c>
       <c r="O6" t="n">
-        <v>314188.7614794352</v>
+        <v>314698.6655800984</v>
       </c>
       <c r="P6" t="n">
-        <v>306629.7933357315</v>
+        <v>307139.6974363949</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,19 +27388,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>209.8933976134044</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>149.5949454381518</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27464,13 +27464,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27479,7 +27479,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>64.29838805296089</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,10 +27518,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>235.4881928393977</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27552,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27658,28 +27658,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>28.90416641419455</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>179.6244982918734</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,19 +27704,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.379743959775055</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>215.9606321724659</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27792,7 +27792,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>169.8542510838218</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27895,28 +27895,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>127.1401470394038</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27935,19 +27935,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27983,7 +27983,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>128.7186226978008</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27995,7 +27995,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>78.81569458612395</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28065,7 +28065,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29533,22 +29533,22 @@
         <v>20.61536955955652</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>20.61536955955652</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>9.427128793566048</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>20.61536955955652</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -29770,28 +29770,28 @@
         <v>20.61536955955652</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>20.61536955955652</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>9.427128793565942</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>20.61536955955652</v>
       </c>
       <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
         <v>20.61536955955652</v>
-      </c>
-      <c r="O32" t="n">
-        <v>20.61536955955652</v>
-      </c>
-      <c r="P32" t="n">
-        <v>20.61536955955652</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.427128793565828</v>
       </c>
       <c r="R32" t="n">
         <v>20.61536955955652</v>
@@ -29879,10 +29879,10 @@
         <v>20.61536955955652</v>
       </c>
       <c r="T33" t="n">
+        <v>20.61536955955677</v>
+      </c>
+      <c r="U33" t="n">
         <v>20.61536955955652</v>
-      </c>
-      <c r="U33" t="n">
-        <v>20.61536955955663</v>
       </c>
       <c r="V33" t="n">
         <v>20.61536955955652</v>
@@ -29934,7 +29934,7 @@
         <v>20.61536955955652</v>
       </c>
       <c r="L34" t="n">
-        <v>20.61536955955886</v>
+        <v>20.61536955955795</v>
       </c>
       <c r="M34" t="n">
         <v>20.61536955955652</v>
@@ -31753,10 +31753,10 @@
         <v>1.182936087669058</v>
       </c>
       <c r="H11" t="n">
-        <v>12.11474420784075</v>
+        <v>12.11474420784074</v>
       </c>
       <c r="I11" t="n">
-        <v>45.60514351986141</v>
+        <v>45.6051435198614</v>
       </c>
       <c r="J11" t="n">
         <v>100.4002217708018</v>
@@ -31768,13 +31768,13 @@
         <v>186.676186654835</v>
       </c>
       <c r="M11" t="n">
-        <v>207.7132263039197</v>
+        <v>207.7132263039196</v>
       </c>
       <c r="N11" t="n">
-        <v>211.0742434630094</v>
+        <v>211.0742434630093</v>
       </c>
       <c r="O11" t="n">
-        <v>199.3114227412502</v>
+        <v>199.3114227412501</v>
       </c>
       <c r="P11" t="n">
         <v>170.1076880769203</v>
@@ -31783,16 +31783,16 @@
         <v>127.7437894372721</v>
       </c>
       <c r="R11" t="n">
-        <v>74.30760901704154</v>
+        <v>74.30760901704153</v>
       </c>
       <c r="S11" t="n">
-        <v>26.95615609775869</v>
+        <v>26.95615609775868</v>
       </c>
       <c r="T11" t="n">
-        <v>5.178302723771305</v>
+        <v>5.178302723771304</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09463488701352463</v>
+        <v>0.09463488701352461</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31829,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6329266057750065</v>
+        <v>0.6329266057750064</v>
       </c>
       <c r="H12" t="n">
-        <v>6.112738534721774</v>
+        <v>6.112738534721773</v>
       </c>
       <c r="I12" t="n">
-        <v>21.79155199707808</v>
+        <v>21.79155199707807</v>
       </c>
       <c r="J12" t="n">
-        <v>59.79768427631323</v>
+        <v>59.79768427631322</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2037668632387</v>
+        <v>102.2037668632386</v>
       </c>
       <c r="L12" t="n">
         <v>137.4255772758408</v>
@@ -31850,19 +31850,19 @@
         <v>160.3691667351847</v>
       </c>
       <c r="N12" t="n">
-        <v>164.6136613853163</v>
+        <v>164.6136613853162</v>
       </c>
       <c r="O12" t="n">
         <v>150.5893402784069</v>
       </c>
       <c r="P12" t="n">
-        <v>120.8612217641765</v>
+        <v>120.8612217641764</v>
       </c>
       <c r="Q12" t="n">
-        <v>80.79252602840259</v>
+        <v>80.79252602840258</v>
       </c>
       <c r="R12" t="n">
-        <v>39.29696943574998</v>
+        <v>39.29696943574997</v>
       </c>
       <c r="S12" t="n">
         <v>11.75633410288224</v>
@@ -31871,7 +31871,7 @@
         <v>2.551138380294871</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0416399082746715</v>
+        <v>0.04163990827467149</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,43 +31908,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5306244048990922</v>
+        <v>0.5306244048990921</v>
       </c>
       <c r="H13" t="n">
-        <v>4.717733345375569</v>
+        <v>4.717733345375568</v>
       </c>
       <c r="I13" t="n">
         <v>15.95732301278361</v>
       </c>
       <c r="J13" t="n">
-        <v>37.51514542636582</v>
+        <v>37.51514542636581</v>
       </c>
       <c r="K13" t="n">
-        <v>61.64890813282179</v>
+        <v>61.64890813282178</v>
       </c>
       <c r="L13" t="n">
-        <v>78.88937743381595</v>
+        <v>78.88937743381594</v>
       </c>
       <c r="M13" t="n">
-        <v>83.17778739704588</v>
+        <v>83.17778739704586</v>
       </c>
       <c r="N13" t="n">
-        <v>81.20000552424023</v>
+        <v>81.20000552424021</v>
       </c>
       <c r="O13" t="n">
-        <v>75.00134770337354</v>
+        <v>75.00134770337353</v>
       </c>
       <c r="P13" t="n">
-        <v>64.176609843432</v>
+        <v>64.17660984343199</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.43255812295944</v>
+        <v>44.43255812295943</v>
       </c>
       <c r="R13" t="n">
         <v>23.85880278755372</v>
       </c>
       <c r="S13" t="n">
-        <v>9.247336219923268</v>
+        <v>9.247336219923266</v>
       </c>
       <c r="T13" t="n">
         <v>2.26721336638703</v>
@@ -31990,10 +31990,10 @@
         <v>1.182936087669058</v>
       </c>
       <c r="H14" t="n">
-        <v>12.11474420784075</v>
+        <v>12.11474420784074</v>
       </c>
       <c r="I14" t="n">
-        <v>45.60514351986141</v>
+        <v>45.6051435198614</v>
       </c>
       <c r="J14" t="n">
         <v>100.4002217708018</v>
@@ -32005,13 +32005,13 @@
         <v>186.676186654835</v>
       </c>
       <c r="M14" t="n">
-        <v>207.7132263039197</v>
+        <v>207.7132263039196</v>
       </c>
       <c r="N14" t="n">
-        <v>211.0742434630094</v>
+        <v>211.0742434630093</v>
       </c>
       <c r="O14" t="n">
-        <v>199.3114227412502</v>
+        <v>199.3114227412501</v>
       </c>
       <c r="P14" t="n">
         <v>170.1076880769203</v>
@@ -32020,16 +32020,16 @@
         <v>127.7437894372721</v>
       </c>
       <c r="R14" t="n">
-        <v>74.30760901704154</v>
+        <v>74.30760901704153</v>
       </c>
       <c r="S14" t="n">
-        <v>26.95615609775869</v>
+        <v>26.95615609775868</v>
       </c>
       <c r="T14" t="n">
-        <v>5.178302723771305</v>
+        <v>5.178302723771304</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09463488701352463</v>
+        <v>0.09463488701352461</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32066,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6329266057750065</v>
+        <v>0.6329266057750064</v>
       </c>
       <c r="H15" t="n">
-        <v>6.112738534721774</v>
+        <v>6.112738534721773</v>
       </c>
       <c r="I15" t="n">
-        <v>21.79155199707808</v>
+        <v>21.79155199707807</v>
       </c>
       <c r="J15" t="n">
-        <v>59.79768427631323</v>
+        <v>59.79768427631322</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2037668632387</v>
+        <v>102.2037668632386</v>
       </c>
       <c r="L15" t="n">
         <v>137.4255772758408</v>
@@ -32087,19 +32087,19 @@
         <v>160.3691667351847</v>
       </c>
       <c r="N15" t="n">
-        <v>164.6136613853163</v>
+        <v>164.6136613853162</v>
       </c>
       <c r="O15" t="n">
         <v>150.5893402784069</v>
       </c>
       <c r="P15" t="n">
-        <v>120.8612217641765</v>
+        <v>120.8612217641764</v>
       </c>
       <c r="Q15" t="n">
-        <v>80.79252602840259</v>
+        <v>80.79252602840258</v>
       </c>
       <c r="R15" t="n">
-        <v>39.29696943574998</v>
+        <v>39.29696943574997</v>
       </c>
       <c r="S15" t="n">
         <v>11.75633410288224</v>
@@ -32108,7 +32108,7 @@
         <v>2.551138380294871</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0416399082746715</v>
+        <v>0.04163990827467149</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,43 +32145,43 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5306244048990922</v>
+        <v>0.5306244048990921</v>
       </c>
       <c r="H16" t="n">
-        <v>4.717733345375569</v>
+        <v>4.717733345375568</v>
       </c>
       <c r="I16" t="n">
         <v>15.95732301278361</v>
       </c>
       <c r="J16" t="n">
-        <v>37.51514542636582</v>
+        <v>37.51514542636581</v>
       </c>
       <c r="K16" t="n">
-        <v>61.64890813282179</v>
+        <v>61.64890813282178</v>
       </c>
       <c r="L16" t="n">
-        <v>78.88937743381595</v>
+        <v>78.88937743381594</v>
       </c>
       <c r="M16" t="n">
-        <v>83.17778739704588</v>
+        <v>83.17778739704586</v>
       </c>
       <c r="N16" t="n">
-        <v>81.20000552424023</v>
+        <v>81.20000552424021</v>
       </c>
       <c r="O16" t="n">
-        <v>75.00134770337354</v>
+        <v>75.00134770337353</v>
       </c>
       <c r="P16" t="n">
-        <v>64.176609843432</v>
+        <v>64.17660984343199</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.43255812295944</v>
+        <v>44.43255812295943</v>
       </c>
       <c r="R16" t="n">
         <v>23.85880278755372</v>
       </c>
       <c r="S16" t="n">
-        <v>9.247336219923268</v>
+        <v>9.247336219923266</v>
       </c>
       <c r="T16" t="n">
         <v>2.26721336638703</v>
@@ -34705,7 +34705,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34787,13 +34787,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34948,7 +34948,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35021,13 +35021,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35267,10 +35267,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>88.4509324161893</v>
+        <v>88.45093241618927</v>
       </c>
       <c r="K11" t="n">
         <v>254.5294678880173</v>
       </c>
       <c r="L11" t="n">
-        <v>368.5709862352983</v>
+        <v>368.5709862352982</v>
       </c>
       <c r="M11" t="n">
-        <v>426.8805265694795</v>
+        <v>426.8805265694793</v>
       </c>
       <c r="N11" t="n">
         <v>419.0081042784026</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>228.8275649014583</v>
+        <v>228.8275649014582</v>
       </c>
       <c r="L12" t="n">
-        <v>369.7115427994258</v>
+        <v>369.7115427994257</v>
       </c>
       <c r="M12" t="n">
         <v>483.9401965631663</v>
       </c>
       <c r="N12" t="n">
-        <v>345.3075586428006</v>
+        <v>496.1955983210309</v>
       </c>
       <c r="O12" t="n">
         <v>401.855415110692</v>
@@ -35507,7 +35507,7 @@
         <v>305.3495829897834</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.8880396782302</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,22 +35568,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>39.37941630693894</v>
+        <v>39.37941630693893</v>
       </c>
       <c r="L13" t="n">
         <v>106.4794026941321</v>
       </c>
       <c r="M13" t="n">
-        <v>122.7616643588865</v>
+        <v>122.7616643588864</v>
       </c>
       <c r="N13" t="n">
         <v>125.3321779034688</v>
       </c>
       <c r="O13" t="n">
-        <v>99.58647561741321</v>
+        <v>99.5864756174132</v>
       </c>
       <c r="P13" t="n">
-        <v>61.45516910832549</v>
+        <v>61.45516910832548</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>88.4509324161893</v>
+        <v>88.45093241618927</v>
       </c>
       <c r="K14" t="n">
         <v>254.5294678880173</v>
       </c>
       <c r="L14" t="n">
-        <v>368.5709862352983</v>
+        <v>368.5709862352982</v>
       </c>
       <c r="M14" t="n">
-        <v>426.8805265694795</v>
+        <v>426.8805265694793</v>
       </c>
       <c r="N14" t="n">
         <v>419.0081042784026</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>59.05109295005536</v>
       </c>
       <c r="K15" t="n">
-        <v>228.8275649014583</v>
+        <v>153.3577466268971</v>
       </c>
       <c r="L15" t="n">
-        <v>369.7115427994258</v>
+        <v>369.7115427994257</v>
       </c>
       <c r="M15" t="n">
-        <v>316.6334315604305</v>
+        <v>483.9401965631663</v>
       </c>
       <c r="N15" t="n">
         <v>512.6143236455365</v>
@@ -35744,7 +35744,7 @@
         <v>305.3495829897834</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.8880396782302</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>39.37941630693894</v>
+        <v>39.37941630693893</v>
       </c>
       <c r="L16" t="n">
         <v>106.4794026941321</v>
       </c>
       <c r="M16" t="n">
-        <v>122.7616643588865</v>
+        <v>122.7616643588864</v>
       </c>
       <c r="N16" t="n">
         <v>125.3321779034688</v>
       </c>
       <c r="O16" t="n">
-        <v>99.58647561741321</v>
+        <v>99.5864756174132</v>
       </c>
       <c r="P16" t="n">
-        <v>61.45516910832549</v>
+        <v>61.45516910832548</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>88.45093241618927</v>
+        <v>88.4509324161897</v>
       </c>
       <c r="K17" t="n">
         <v>254.5294678880173</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>59.05109295005536</v>
       </c>
       <c r="K18" t="n">
         <v>228.8275649014582</v>
@@ -35972,13 +35972,13 @@
         <v>483.9401965631663</v>
       </c>
       <c r="N18" t="n">
-        <v>496.1955983210309</v>
+        <v>512.6143236455365</v>
       </c>
       <c r="O18" t="n">
         <v>401.855415110692</v>
       </c>
       <c r="P18" t="n">
-        <v>305.3495829897834</v>
+        <v>229.8797647152223</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>59.05109295005536</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2.469706948667118</v>
+        <v>61.52079989872249</v>
       </c>
       <c r="L21" t="n">
         <v>369.7115427994257</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>59.05109295005536</v>
       </c>
       <c r="K27" t="n">
         <v>228.8275649014582</v>
@@ -36680,7 +36680,7 @@
         <v>369.7115427994257</v>
       </c>
       <c r="M27" t="n">
-        <v>316.6334315604306</v>
+        <v>483.9401965631663</v>
       </c>
       <c r="N27" t="n">
         <v>512.6143236455365</v>
@@ -36689,10 +36689,10 @@
         <v>401.855415110692</v>
       </c>
       <c r="P27" t="n">
-        <v>305.3495829897834</v>
+        <v>229.8797647152223</v>
       </c>
       <c r="Q27" t="n">
-        <v>150.8880396782301</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>109.0663019757458</v>
+        <v>88.45093241618927</v>
       </c>
       <c r="K29" t="n">
         <v>254.5294678880173</v>
       </c>
       <c r="L29" t="n">
-        <v>377.9981150288643</v>
+        <v>389.1863557948548</v>
       </c>
       <c r="M29" t="n">
         <v>426.8805265694793</v>
       </c>
       <c r="N29" t="n">
-        <v>439.6234738379591</v>
+        <v>428.4352330719686</v>
       </c>
       <c r="O29" t="n">
-        <v>350.0133925823088</v>
+        <v>370.6287621418653</v>
       </c>
       <c r="P29" t="n">
         <v>260.6734004931334</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>59.05109295005536</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>228.8275649014582</v>
+        <v>132.794037370958</v>
       </c>
       <c r="L30" t="n">
         <v>369.7115427994257</v>
@@ -36926,7 +36926,7 @@
         <v>401.855415110692</v>
       </c>
       <c r="P30" t="n">
-        <v>150.2649625092278</v>
+        <v>305.3495829897834</v>
       </c>
       <c r="Q30" t="n">
         <v>150.8880396782301</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>88.4509324161893</v>
+        <v>109.0663019757458</v>
       </c>
       <c r="K32" t="n">
-        <v>254.5294678880173</v>
+        <v>263.9565966815832</v>
       </c>
       <c r="L32" t="n">
         <v>368.5709862352983</v>
       </c>
       <c r="M32" t="n">
-        <v>426.8805265694795</v>
+        <v>447.4958961290359</v>
       </c>
       <c r="N32" t="n">
-        <v>439.6234738379592</v>
+        <v>419.0081042784026</v>
       </c>
       <c r="O32" t="n">
-        <v>370.6287621418653</v>
+        <v>350.0133925823088</v>
       </c>
       <c r="P32" t="n">
-        <v>281.2887700526899</v>
+        <v>260.6734004931334</v>
       </c>
       <c r="Q32" t="n">
-        <v>127.1802190162931</v>
+        <v>138.3684597822838</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>59.99478586649546</v>
       </c>
       <c r="L34" t="n">
-        <v>127.0947722536909</v>
+        <v>127.09477225369</v>
       </c>
       <c r="M34" t="n">
         <v>143.377033918443</v>
@@ -37242,7 +37242,7 @@
         <v>120.2018451769697</v>
       </c>
       <c r="P34" t="n">
-        <v>82.07053866788202</v>
+        <v>82.070538667882</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>419.0081042784026</v>
       </c>
       <c r="O35" t="n">
-        <v>350.0133925823088</v>
+        <v>350.0133925823091</v>
       </c>
       <c r="P35" t="n">
         <v>260.6734004931334</v>
@@ -37385,7 +37385,7 @@
         <v>59.05109295005537</v>
       </c>
       <c r="K36" t="n">
-        <v>2.46970694866706</v>
+        <v>228.8275649014583</v>
       </c>
       <c r="L36" t="n">
         <v>369.7115427994258</v>
@@ -37394,7 +37394,7 @@
         <v>483.9401965631663</v>
       </c>
       <c r="N36" t="n">
-        <v>512.6143236455365</v>
+        <v>437.1445053709754</v>
       </c>
       <c r="O36" t="n">
         <v>401.855415110692</v>
@@ -37403,7 +37403,7 @@
         <v>305.3495829897834</v>
       </c>
       <c r="Q36" t="n">
-        <v>150.8880396782302</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>120.2018451769697</v>
       </c>
       <c r="P37" t="n">
-        <v>82.07053866788202</v>
+        <v>82.070538667882</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>426.8805265694795</v>
       </c>
       <c r="N38" t="n">
-        <v>419.0081042784028</v>
+        <v>419.0081042784026</v>
       </c>
       <c r="O38" t="n">
         <v>350.0133925823088</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>59.05109295005537</v>
       </c>
       <c r="K39" t="n">
-        <v>61.52079989872243</v>
+        <v>228.8275649014583</v>
       </c>
       <c r="L39" t="n">
         <v>369.7115427994258</v>
@@ -37637,7 +37637,7 @@
         <v>401.855415110692</v>
       </c>
       <c r="P39" t="n">
-        <v>305.3495829897834</v>
+        <v>78.99172503699226</v>
       </c>
       <c r="Q39" t="n">
         <v>150.8880396782302</v>
@@ -37716,7 +37716,7 @@
         <v>120.2018451769697</v>
       </c>
       <c r="P40" t="n">
-        <v>82.07053866788202</v>
+        <v>82.070538667882</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>212.4088395769524</v>
+        <v>228.8275649014583</v>
       </c>
       <c r="L42" t="n">
         <v>369.7115427994258</v>
@@ -37871,7 +37871,7 @@
         <v>512.6143236455365</v>
       </c>
       <c r="O42" t="n">
-        <v>401.855415110692</v>
+        <v>385.4366897861863</v>
       </c>
       <c r="P42" t="n">
         <v>305.3495829897834</v>
@@ -37953,7 +37953,7 @@
         <v>120.2018451769697</v>
       </c>
       <c r="P43" t="n">
-        <v>82.07053866788202</v>
+        <v>82.070538667882</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38026,13 +38026,13 @@
         <v>426.8805265694795</v>
       </c>
       <c r="N44" t="n">
-        <v>419.0081042784028</v>
+        <v>419.0081042784026</v>
       </c>
       <c r="O44" t="n">
         <v>350.0133925823088</v>
       </c>
       <c r="P44" t="n">
-        <v>260.6734004931334</v>
+        <v>260.6734004931335</v>
       </c>
       <c r="Q44" t="n">
         <v>117.7530902227273</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>59.05109295005537</v>
       </c>
       <c r="K45" t="n">
         <v>228.8275649014583</v>
@@ -38102,10 +38102,10 @@
         <v>369.7115427994258</v>
       </c>
       <c r="M45" t="n">
-        <v>316.6334315604305</v>
+        <v>483.9401965631663</v>
       </c>
       <c r="N45" t="n">
-        <v>512.6143236455365</v>
+        <v>286.2564656927453</v>
       </c>
       <c r="O45" t="n">
         <v>401.855415110692</v>
